--- a/WIP/Documents/Report 4/UT/WS_Unit Test Case_ConservationDAL_v1.0.xlsx
+++ b/WIP/Documents/Report 4/UT/WS_Unit Test Case_ConservationDAL_v1.0.xlsx
@@ -638,15 +638,9 @@
     <t>Id=</t>
   </si>
   <si>
-    <t>Database exist 30 row of Message with ConversationId="6"</t>
-  </si>
-  <si>
     <t>Database exist 0 row of Message with ConversationId="7"</t>
   </si>
   <si>
-    <t>Database exist 10 row of Message with ConversationId="8"</t>
-  </si>
-  <si>
     <t>Return &lt;List&gt;MessageBasicInfoDTO  = null</t>
   </si>
   <si>
@@ -659,15 +653,9 @@
     <t>Insert Message to Database</t>
   </si>
   <si>
-    <t>Database Conversation exist 20 row with UserName="tuanha"</t>
-  </si>
-  <si>
     <t>Database Conversation exist 0 row with UserName="toanmq"</t>
   </si>
   <si>
-    <t>Database Conversation exist 10 row with UserName="tuandv"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> UserName=</t>
   </si>
   <si>
@@ -684,6 +672,18 @@
   </si>
   <si>
     <t>return &lt;List&gt;ConservationBasicInfoDTO = null</t>
+  </si>
+  <si>
+    <t>Database Conversation exist 20 rows with UserName="tuanha"</t>
+  </si>
+  <si>
+    <t>Database Conversation exist 10 rows with UserName="tuandv"</t>
+  </si>
+  <si>
+    <t>Database exist 30 rows of Message with ConversationId="6"</t>
+  </si>
+  <si>
+    <t>Database exist 10 rows of Message with ConversationId="8"</t>
   </si>
 </sst>
 </file>
@@ -2874,6 +2874,90 @@
     <xf numFmtId="14" fontId="38" fillId="24" borderId="10" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="65" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="66" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="61" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="54" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="42" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="60" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="55" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="81" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="82" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="83" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="67" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="50" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="51" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="52" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="67" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="49" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="48" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="47" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="56" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="53" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="24" borderId="62" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2904,12 +2988,6 @@
     <xf numFmtId="0" fontId="32" fillId="24" borderId="68" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="67" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="72" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2933,84 +3011,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="71" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="50" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="51" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="52" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="67" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="49" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="48" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="47" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="56" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="53" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="65" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="66" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="61" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="54" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="42" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="60" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="55" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="81" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="82" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="83" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5913,136 +5913,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="196" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="224" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="198" t="s">
+      <c r="D2" s="225"/>
+      <c r="E2" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201" t="str">
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="229" t="str">
         <f>C2</f>
         <v>AddNewMessage</v>
       </c>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="231"/>
       <c r="T2" s="73"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="206" t="str">
+      <c r="B3" s="211"/>
+      <c r="C3" s="232" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="207"/>
-      <c r="E3" s="208" t="s">
+      <c r="D3" s="233"/>
+      <c r="E3" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="211" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="237" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="239"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="204" t="s">
+      <c r="A4" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="214"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214"/>
-      <c r="N4" s="214"/>
-      <c r="O4" s="214"/>
-      <c r="P4" s="214"/>
-      <c r="Q4" s="214"/>
-      <c r="R4" s="216"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="214"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="219" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="220"/>
-      <c r="E5" s="221" t="s">
+      <c r="D5" s="218"/>
+      <c r="E5" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="220" t="s">
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="221" t="s">
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="220"/>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="223"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="221"/>
       <c r="T5" s="73"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="227">
+      <c r="A6" s="197">
         <f>COUNTIF(E19:HM19,"P")</f>
         <v>2</v>
       </c>
-      <c r="B6" s="228"/>
-      <c r="C6" s="229">
+      <c r="B6" s="198"/>
+      <c r="C6" s="199">
         <f>COUNTIF(E19:HO19,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="231">
+      <c r="D6" s="200"/>
+      <c r="E6" s="201">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="232"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="202"/>
       <c r="I6" s="117">
         <f>COUNTIF(E18:HM18,"N")</f>
         <v>0</v>
@@ -6055,16 +6055,16 @@
         <f>COUNTIF(E18:HM18,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="231">
+      <c r="L6" s="201">
         <f>COUNTA(E8:P8)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="230"/>
-      <c r="N6" s="230"/>
-      <c r="O6" s="230"/>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="233"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="203"/>
       <c r="S6" s="118"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -6098,7 +6098,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="139" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="140"/>
       <c r="D9" s="141"/>
@@ -6255,7 +6255,7 @@
     <row r="16" spans="1:20" ht="13.5" customHeight="1">
       <c r="A16" s="136"/>
       <c r="B16" s="130" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C16" s="131"/>
       <c r="D16" s="132"/>
@@ -6300,11 +6300,11 @@
       <c r="A18" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="234" t="s">
+      <c r="B18" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="235"/>
-      <c r="D18" s="236"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="206"/>
       <c r="E18" s="157" t="s">
         <v>36</v>
       </c>
@@ -6326,11 +6326,11 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="136"/>
-      <c r="B19" s="237" t="s">
+      <c r="B19" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="238"/>
-      <c r="D19" s="239"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="134" t="s">
         <v>38</v>
       </c>
@@ -6352,11 +6352,11 @@
     </row>
     <row r="20" spans="1:18" ht="54">
       <c r="A20" s="136"/>
-      <c r="B20" s="224" t="s">
+      <c r="B20" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="225"/>
-      <c r="D20" s="226"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="196"/>
       <c r="E20" s="133">
         <v>42594</v>
       </c>
@@ -6461,11 +6461,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:R3"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="A4:B4"/>
@@ -6475,14 +6478,11 @@
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:R5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:R19 JA19:JN19 SW19:TJ19 ACS19:ADF19 AMO19:ANB19 AWK19:AWX19 BGG19:BGT19 BQC19:BQP19 BZY19:CAL19 CJU19:CKH19 CTQ19:CUD19 DDM19:DDZ19 DNI19:DNV19 DXE19:DXR19 EHA19:EHN19 EQW19:ERJ19 FAS19:FBF19 FKO19:FLB19 FUK19:FUX19 GEG19:GET19 GOC19:GOP19 GXY19:GYL19 HHU19:HIH19 HRQ19:HSD19 IBM19:IBZ19 ILI19:ILV19 IVE19:IVR19 JFA19:JFN19 JOW19:JPJ19 JYS19:JZF19 KIO19:KJB19 KSK19:KSX19 LCG19:LCT19 LMC19:LMP19 LVY19:LWL19 MFU19:MGH19 MPQ19:MQD19 MZM19:MZZ19 NJI19:NJV19 NTE19:NTR19 ODA19:ODN19 OMW19:ONJ19 OWS19:OXF19 PGO19:PHB19 PQK19:PQX19 QAG19:QAT19 QKC19:QKP19 QTY19:QUL19 RDU19:REH19 RNQ19:ROD19 RXM19:RXZ19 SHI19:SHV19 SRE19:SRR19 TBA19:TBN19 TKW19:TLJ19 TUS19:TVF19 UEO19:UFB19 UOK19:UOX19 UYG19:UYT19 VIC19:VIP19 VRY19:VSL19 WBU19:WCH19 WLQ19:WMD19 WVM19:WVZ19 E65555:R65555 JA65555:JN65555 SW65555:TJ65555 ACS65555:ADF65555 AMO65555:ANB65555 AWK65555:AWX65555 BGG65555:BGT65555 BQC65555:BQP65555 BZY65555:CAL65555 CJU65555:CKH65555 CTQ65555:CUD65555 DDM65555:DDZ65555 DNI65555:DNV65555 DXE65555:DXR65555 EHA65555:EHN65555 EQW65555:ERJ65555 FAS65555:FBF65555 FKO65555:FLB65555 FUK65555:FUX65555 GEG65555:GET65555 GOC65555:GOP65555 GXY65555:GYL65555 HHU65555:HIH65555 HRQ65555:HSD65555 IBM65555:IBZ65555 ILI65555:ILV65555 IVE65555:IVR65555 JFA65555:JFN65555 JOW65555:JPJ65555 JYS65555:JZF65555 KIO65555:KJB65555 KSK65555:KSX65555 LCG65555:LCT65555 LMC65555:LMP65555 LVY65555:LWL65555 MFU65555:MGH65555 MPQ65555:MQD65555 MZM65555:MZZ65555 NJI65555:NJV65555 NTE65555:NTR65555 ODA65555:ODN65555 OMW65555:ONJ65555 OWS65555:OXF65555 PGO65555:PHB65555 PQK65555:PQX65555 QAG65555:QAT65555 QKC65555:QKP65555 QTY65555:QUL65555 RDU65555:REH65555 RNQ65555:ROD65555 RXM65555:RXZ65555 SHI65555:SHV65555 SRE65555:SRR65555 TBA65555:TBN65555 TKW65555:TLJ65555 TUS65555:TVF65555 UEO65555:UFB65555 UOK65555:UOX65555 UYG65555:UYT65555 VIC65555:VIP65555 VRY65555:VSL65555 WBU65555:WCH65555 WLQ65555:WMD65555 WVM65555:WVZ65555 E131091:R131091 JA131091:JN131091 SW131091:TJ131091 ACS131091:ADF131091 AMO131091:ANB131091 AWK131091:AWX131091 BGG131091:BGT131091 BQC131091:BQP131091 BZY131091:CAL131091 CJU131091:CKH131091 CTQ131091:CUD131091 DDM131091:DDZ131091 DNI131091:DNV131091 DXE131091:DXR131091 EHA131091:EHN131091 EQW131091:ERJ131091 FAS131091:FBF131091 FKO131091:FLB131091 FUK131091:FUX131091 GEG131091:GET131091 GOC131091:GOP131091 GXY131091:GYL131091 HHU131091:HIH131091 HRQ131091:HSD131091 IBM131091:IBZ131091 ILI131091:ILV131091 IVE131091:IVR131091 JFA131091:JFN131091 JOW131091:JPJ131091 JYS131091:JZF131091 KIO131091:KJB131091 KSK131091:KSX131091 LCG131091:LCT131091 LMC131091:LMP131091 LVY131091:LWL131091 MFU131091:MGH131091 MPQ131091:MQD131091 MZM131091:MZZ131091 NJI131091:NJV131091 NTE131091:NTR131091 ODA131091:ODN131091 OMW131091:ONJ131091 OWS131091:OXF131091 PGO131091:PHB131091 PQK131091:PQX131091 QAG131091:QAT131091 QKC131091:QKP131091 QTY131091:QUL131091 RDU131091:REH131091 RNQ131091:ROD131091 RXM131091:RXZ131091 SHI131091:SHV131091 SRE131091:SRR131091 TBA131091:TBN131091 TKW131091:TLJ131091 TUS131091:TVF131091 UEO131091:UFB131091 UOK131091:UOX131091 UYG131091:UYT131091 VIC131091:VIP131091 VRY131091:VSL131091 WBU131091:WCH131091 WLQ131091:WMD131091 WVM131091:WVZ131091 E196627:R196627 JA196627:JN196627 SW196627:TJ196627 ACS196627:ADF196627 AMO196627:ANB196627 AWK196627:AWX196627 BGG196627:BGT196627 BQC196627:BQP196627 BZY196627:CAL196627 CJU196627:CKH196627 CTQ196627:CUD196627 DDM196627:DDZ196627 DNI196627:DNV196627 DXE196627:DXR196627 EHA196627:EHN196627 EQW196627:ERJ196627 FAS196627:FBF196627 FKO196627:FLB196627 FUK196627:FUX196627 GEG196627:GET196627 GOC196627:GOP196627 GXY196627:GYL196627 HHU196627:HIH196627 HRQ196627:HSD196627 IBM196627:IBZ196627 ILI196627:ILV196627 IVE196627:IVR196627 JFA196627:JFN196627 JOW196627:JPJ196627 JYS196627:JZF196627 KIO196627:KJB196627 KSK196627:KSX196627 LCG196627:LCT196627 LMC196627:LMP196627 LVY196627:LWL196627 MFU196627:MGH196627 MPQ196627:MQD196627 MZM196627:MZZ196627 NJI196627:NJV196627 NTE196627:NTR196627 ODA196627:ODN196627 OMW196627:ONJ196627 OWS196627:OXF196627 PGO196627:PHB196627 PQK196627:PQX196627 QAG196627:QAT196627 QKC196627:QKP196627 QTY196627:QUL196627 RDU196627:REH196627 RNQ196627:ROD196627 RXM196627:RXZ196627 SHI196627:SHV196627 SRE196627:SRR196627 TBA196627:TBN196627 TKW196627:TLJ196627 TUS196627:TVF196627 UEO196627:UFB196627 UOK196627:UOX196627 UYG196627:UYT196627 VIC196627:VIP196627 VRY196627:VSL196627 WBU196627:WCH196627 WLQ196627:WMD196627 WVM196627:WVZ196627 E262163:R262163 JA262163:JN262163 SW262163:TJ262163 ACS262163:ADF262163 AMO262163:ANB262163 AWK262163:AWX262163 BGG262163:BGT262163 BQC262163:BQP262163 BZY262163:CAL262163 CJU262163:CKH262163 CTQ262163:CUD262163 DDM262163:DDZ262163 DNI262163:DNV262163 DXE262163:DXR262163 EHA262163:EHN262163 EQW262163:ERJ262163 FAS262163:FBF262163 FKO262163:FLB262163 FUK262163:FUX262163 GEG262163:GET262163 GOC262163:GOP262163 GXY262163:GYL262163 HHU262163:HIH262163 HRQ262163:HSD262163 IBM262163:IBZ262163 ILI262163:ILV262163 IVE262163:IVR262163 JFA262163:JFN262163 JOW262163:JPJ262163 JYS262163:JZF262163 KIO262163:KJB262163 KSK262163:KSX262163 LCG262163:LCT262163 LMC262163:LMP262163 LVY262163:LWL262163 MFU262163:MGH262163 MPQ262163:MQD262163 MZM262163:MZZ262163 NJI262163:NJV262163 NTE262163:NTR262163 ODA262163:ODN262163 OMW262163:ONJ262163 OWS262163:OXF262163 PGO262163:PHB262163 PQK262163:PQX262163 QAG262163:QAT262163 QKC262163:QKP262163 QTY262163:QUL262163 RDU262163:REH262163 RNQ262163:ROD262163 RXM262163:RXZ262163 SHI262163:SHV262163 SRE262163:SRR262163 TBA262163:TBN262163 TKW262163:TLJ262163 TUS262163:TVF262163 UEO262163:UFB262163 UOK262163:UOX262163 UYG262163:UYT262163 VIC262163:VIP262163 VRY262163:VSL262163 WBU262163:WCH262163 WLQ262163:WMD262163 WVM262163:WVZ262163 E327699:R327699 JA327699:JN327699 SW327699:TJ327699 ACS327699:ADF327699 AMO327699:ANB327699 AWK327699:AWX327699 BGG327699:BGT327699 BQC327699:BQP327699 BZY327699:CAL327699 CJU327699:CKH327699 CTQ327699:CUD327699 DDM327699:DDZ327699 DNI327699:DNV327699 DXE327699:DXR327699 EHA327699:EHN327699 EQW327699:ERJ327699 FAS327699:FBF327699 FKO327699:FLB327699 FUK327699:FUX327699 GEG327699:GET327699 GOC327699:GOP327699 GXY327699:GYL327699 HHU327699:HIH327699 HRQ327699:HSD327699 IBM327699:IBZ327699 ILI327699:ILV327699 IVE327699:IVR327699 JFA327699:JFN327699 JOW327699:JPJ327699 JYS327699:JZF327699 KIO327699:KJB327699 KSK327699:KSX327699 LCG327699:LCT327699 LMC327699:LMP327699 LVY327699:LWL327699 MFU327699:MGH327699 MPQ327699:MQD327699 MZM327699:MZZ327699 NJI327699:NJV327699 NTE327699:NTR327699 ODA327699:ODN327699 OMW327699:ONJ327699 OWS327699:OXF327699 PGO327699:PHB327699 PQK327699:PQX327699 QAG327699:QAT327699 QKC327699:QKP327699 QTY327699:QUL327699 RDU327699:REH327699 RNQ327699:ROD327699 RXM327699:RXZ327699 SHI327699:SHV327699 SRE327699:SRR327699 TBA327699:TBN327699 TKW327699:TLJ327699 TUS327699:TVF327699 UEO327699:UFB327699 UOK327699:UOX327699 UYG327699:UYT327699 VIC327699:VIP327699 VRY327699:VSL327699 WBU327699:WCH327699 WLQ327699:WMD327699 WVM327699:WVZ327699 E393235:R393235 JA393235:JN393235 SW393235:TJ393235 ACS393235:ADF393235 AMO393235:ANB393235 AWK393235:AWX393235 BGG393235:BGT393235 BQC393235:BQP393235 BZY393235:CAL393235 CJU393235:CKH393235 CTQ393235:CUD393235 DDM393235:DDZ393235 DNI393235:DNV393235 DXE393235:DXR393235 EHA393235:EHN393235 EQW393235:ERJ393235 FAS393235:FBF393235 FKO393235:FLB393235 FUK393235:FUX393235 GEG393235:GET393235 GOC393235:GOP393235 GXY393235:GYL393235 HHU393235:HIH393235 HRQ393235:HSD393235 IBM393235:IBZ393235 ILI393235:ILV393235 IVE393235:IVR393235 JFA393235:JFN393235 JOW393235:JPJ393235 JYS393235:JZF393235 KIO393235:KJB393235 KSK393235:KSX393235 LCG393235:LCT393235 LMC393235:LMP393235 LVY393235:LWL393235 MFU393235:MGH393235 MPQ393235:MQD393235 MZM393235:MZZ393235 NJI393235:NJV393235 NTE393235:NTR393235 ODA393235:ODN393235 OMW393235:ONJ393235 OWS393235:OXF393235 PGO393235:PHB393235 PQK393235:PQX393235 QAG393235:QAT393235 QKC393235:QKP393235 QTY393235:QUL393235 RDU393235:REH393235 RNQ393235:ROD393235 RXM393235:RXZ393235 SHI393235:SHV393235 SRE393235:SRR393235 TBA393235:TBN393235 TKW393235:TLJ393235 TUS393235:TVF393235 UEO393235:UFB393235 UOK393235:UOX393235 UYG393235:UYT393235 VIC393235:VIP393235 VRY393235:VSL393235 WBU393235:WCH393235 WLQ393235:WMD393235 WVM393235:WVZ393235 E458771:R458771 JA458771:JN458771 SW458771:TJ458771 ACS458771:ADF458771 AMO458771:ANB458771 AWK458771:AWX458771 BGG458771:BGT458771 BQC458771:BQP458771 BZY458771:CAL458771 CJU458771:CKH458771 CTQ458771:CUD458771 DDM458771:DDZ458771 DNI458771:DNV458771 DXE458771:DXR458771 EHA458771:EHN458771 EQW458771:ERJ458771 FAS458771:FBF458771 FKO458771:FLB458771 FUK458771:FUX458771 GEG458771:GET458771 GOC458771:GOP458771 GXY458771:GYL458771 HHU458771:HIH458771 HRQ458771:HSD458771 IBM458771:IBZ458771 ILI458771:ILV458771 IVE458771:IVR458771 JFA458771:JFN458771 JOW458771:JPJ458771 JYS458771:JZF458771 KIO458771:KJB458771 KSK458771:KSX458771 LCG458771:LCT458771 LMC458771:LMP458771 LVY458771:LWL458771 MFU458771:MGH458771 MPQ458771:MQD458771 MZM458771:MZZ458771 NJI458771:NJV458771 NTE458771:NTR458771 ODA458771:ODN458771 OMW458771:ONJ458771 OWS458771:OXF458771 PGO458771:PHB458771 PQK458771:PQX458771 QAG458771:QAT458771 QKC458771:QKP458771 QTY458771:QUL458771 RDU458771:REH458771 RNQ458771:ROD458771 RXM458771:RXZ458771 SHI458771:SHV458771 SRE458771:SRR458771 TBA458771:TBN458771 TKW458771:TLJ458771 TUS458771:TVF458771 UEO458771:UFB458771 UOK458771:UOX458771 UYG458771:UYT458771 VIC458771:VIP458771 VRY458771:VSL458771 WBU458771:WCH458771 WLQ458771:WMD458771 WVM458771:WVZ458771 E524307:R524307 JA524307:JN524307 SW524307:TJ524307 ACS524307:ADF524307 AMO524307:ANB524307 AWK524307:AWX524307 BGG524307:BGT524307 BQC524307:BQP524307 BZY524307:CAL524307 CJU524307:CKH524307 CTQ524307:CUD524307 DDM524307:DDZ524307 DNI524307:DNV524307 DXE524307:DXR524307 EHA524307:EHN524307 EQW524307:ERJ524307 FAS524307:FBF524307 FKO524307:FLB524307 FUK524307:FUX524307 GEG524307:GET524307 GOC524307:GOP524307 GXY524307:GYL524307 HHU524307:HIH524307 HRQ524307:HSD524307 IBM524307:IBZ524307 ILI524307:ILV524307 IVE524307:IVR524307 JFA524307:JFN524307 JOW524307:JPJ524307 JYS524307:JZF524307 KIO524307:KJB524307 KSK524307:KSX524307 LCG524307:LCT524307 LMC524307:LMP524307 LVY524307:LWL524307 MFU524307:MGH524307 MPQ524307:MQD524307 MZM524307:MZZ524307 NJI524307:NJV524307 NTE524307:NTR524307 ODA524307:ODN524307 OMW524307:ONJ524307 OWS524307:OXF524307 PGO524307:PHB524307 PQK524307:PQX524307 QAG524307:QAT524307 QKC524307:QKP524307 QTY524307:QUL524307 RDU524307:REH524307 RNQ524307:ROD524307 RXM524307:RXZ524307 SHI524307:SHV524307 SRE524307:SRR524307 TBA524307:TBN524307 TKW524307:TLJ524307 TUS524307:TVF524307 UEO524307:UFB524307 UOK524307:UOX524307 UYG524307:UYT524307 VIC524307:VIP524307 VRY524307:VSL524307 WBU524307:WCH524307 WLQ524307:WMD524307 WVM524307:WVZ524307 E589843:R589843 JA589843:JN589843 SW589843:TJ589843 ACS589843:ADF589843 AMO589843:ANB589843 AWK589843:AWX589843 BGG589843:BGT589843 BQC589843:BQP589843 BZY589843:CAL589843 CJU589843:CKH589843 CTQ589843:CUD589843 DDM589843:DDZ589843 DNI589843:DNV589843 DXE589843:DXR589843 EHA589843:EHN589843 EQW589843:ERJ589843 FAS589843:FBF589843 FKO589843:FLB589843 FUK589843:FUX589843 GEG589843:GET589843 GOC589843:GOP589843 GXY589843:GYL589843 HHU589843:HIH589843 HRQ589843:HSD589843 IBM589843:IBZ589843 ILI589843:ILV589843 IVE589843:IVR589843 JFA589843:JFN589843 JOW589843:JPJ589843 JYS589843:JZF589843 KIO589843:KJB589843 KSK589843:KSX589843 LCG589843:LCT589843 LMC589843:LMP589843 LVY589843:LWL589843 MFU589843:MGH589843 MPQ589843:MQD589843 MZM589843:MZZ589843 NJI589843:NJV589843 NTE589843:NTR589843 ODA589843:ODN589843 OMW589843:ONJ589843 OWS589843:OXF589843 PGO589843:PHB589843 PQK589843:PQX589843 QAG589843:QAT589843 QKC589843:QKP589843 QTY589843:QUL589843 RDU589843:REH589843 RNQ589843:ROD589843 RXM589843:RXZ589843 SHI589843:SHV589843 SRE589843:SRR589843 TBA589843:TBN589843 TKW589843:TLJ589843 TUS589843:TVF589843 UEO589843:UFB589843 UOK589843:UOX589843 UYG589843:UYT589843 VIC589843:VIP589843 VRY589843:VSL589843 WBU589843:WCH589843 WLQ589843:WMD589843 WVM589843:WVZ589843 E655379:R655379 JA655379:JN655379 SW655379:TJ655379 ACS655379:ADF655379 AMO655379:ANB655379 AWK655379:AWX655379 BGG655379:BGT655379 BQC655379:BQP655379 BZY655379:CAL655379 CJU655379:CKH655379 CTQ655379:CUD655379 DDM655379:DDZ655379 DNI655379:DNV655379 DXE655379:DXR655379 EHA655379:EHN655379 EQW655379:ERJ655379 FAS655379:FBF655379 FKO655379:FLB655379 FUK655379:FUX655379 GEG655379:GET655379 GOC655379:GOP655379 GXY655379:GYL655379 HHU655379:HIH655379 HRQ655379:HSD655379 IBM655379:IBZ655379 ILI655379:ILV655379 IVE655379:IVR655379 JFA655379:JFN655379 JOW655379:JPJ655379 JYS655379:JZF655379 KIO655379:KJB655379 KSK655379:KSX655379 LCG655379:LCT655379 LMC655379:LMP655379 LVY655379:LWL655379 MFU655379:MGH655379 MPQ655379:MQD655379 MZM655379:MZZ655379 NJI655379:NJV655379 NTE655379:NTR655379 ODA655379:ODN655379 OMW655379:ONJ655379 OWS655379:OXF655379 PGO655379:PHB655379 PQK655379:PQX655379 QAG655379:QAT655379 QKC655379:QKP655379 QTY655379:QUL655379 RDU655379:REH655379 RNQ655379:ROD655379 RXM655379:RXZ655379 SHI655379:SHV655379 SRE655379:SRR655379 TBA655379:TBN655379 TKW655379:TLJ655379 TUS655379:TVF655379 UEO655379:UFB655379 UOK655379:UOX655379 UYG655379:UYT655379 VIC655379:VIP655379 VRY655379:VSL655379 WBU655379:WCH655379 WLQ655379:WMD655379 WVM655379:WVZ655379 E720915:R720915 JA720915:JN720915 SW720915:TJ720915 ACS720915:ADF720915 AMO720915:ANB720915 AWK720915:AWX720915 BGG720915:BGT720915 BQC720915:BQP720915 BZY720915:CAL720915 CJU720915:CKH720915 CTQ720915:CUD720915 DDM720915:DDZ720915 DNI720915:DNV720915 DXE720915:DXR720915 EHA720915:EHN720915 EQW720915:ERJ720915 FAS720915:FBF720915 FKO720915:FLB720915 FUK720915:FUX720915 GEG720915:GET720915 GOC720915:GOP720915 GXY720915:GYL720915 HHU720915:HIH720915 HRQ720915:HSD720915 IBM720915:IBZ720915 ILI720915:ILV720915 IVE720915:IVR720915 JFA720915:JFN720915 JOW720915:JPJ720915 JYS720915:JZF720915 KIO720915:KJB720915 KSK720915:KSX720915 LCG720915:LCT720915 LMC720915:LMP720915 LVY720915:LWL720915 MFU720915:MGH720915 MPQ720915:MQD720915 MZM720915:MZZ720915 NJI720915:NJV720915 NTE720915:NTR720915 ODA720915:ODN720915 OMW720915:ONJ720915 OWS720915:OXF720915 PGO720915:PHB720915 PQK720915:PQX720915 QAG720915:QAT720915 QKC720915:QKP720915 QTY720915:QUL720915 RDU720915:REH720915 RNQ720915:ROD720915 RXM720915:RXZ720915 SHI720915:SHV720915 SRE720915:SRR720915 TBA720915:TBN720915 TKW720915:TLJ720915 TUS720915:TVF720915 UEO720915:UFB720915 UOK720915:UOX720915 UYG720915:UYT720915 VIC720915:VIP720915 VRY720915:VSL720915 WBU720915:WCH720915 WLQ720915:WMD720915 WVM720915:WVZ720915 E786451:R786451 JA786451:JN786451 SW786451:TJ786451 ACS786451:ADF786451 AMO786451:ANB786451 AWK786451:AWX786451 BGG786451:BGT786451 BQC786451:BQP786451 BZY786451:CAL786451 CJU786451:CKH786451 CTQ786451:CUD786451 DDM786451:DDZ786451 DNI786451:DNV786451 DXE786451:DXR786451 EHA786451:EHN786451 EQW786451:ERJ786451 FAS786451:FBF786451 FKO786451:FLB786451 FUK786451:FUX786451 GEG786451:GET786451 GOC786451:GOP786451 GXY786451:GYL786451 HHU786451:HIH786451 HRQ786451:HSD786451 IBM786451:IBZ786451 ILI786451:ILV786451 IVE786451:IVR786451 JFA786451:JFN786451 JOW786451:JPJ786451 JYS786451:JZF786451 KIO786451:KJB786451 KSK786451:KSX786451 LCG786451:LCT786451 LMC786451:LMP786451 LVY786451:LWL786451 MFU786451:MGH786451 MPQ786451:MQD786451 MZM786451:MZZ786451 NJI786451:NJV786451 NTE786451:NTR786451 ODA786451:ODN786451 OMW786451:ONJ786451 OWS786451:OXF786451 PGO786451:PHB786451 PQK786451:PQX786451 QAG786451:QAT786451 QKC786451:QKP786451 QTY786451:QUL786451 RDU786451:REH786451 RNQ786451:ROD786451 RXM786451:RXZ786451 SHI786451:SHV786451 SRE786451:SRR786451 TBA786451:TBN786451 TKW786451:TLJ786451 TUS786451:TVF786451 UEO786451:UFB786451 UOK786451:UOX786451 UYG786451:UYT786451 VIC786451:VIP786451 VRY786451:VSL786451 WBU786451:WCH786451 WLQ786451:WMD786451 WVM786451:WVZ786451 E851987:R851987 JA851987:JN851987 SW851987:TJ851987 ACS851987:ADF851987 AMO851987:ANB851987 AWK851987:AWX851987 BGG851987:BGT851987 BQC851987:BQP851987 BZY851987:CAL851987 CJU851987:CKH851987 CTQ851987:CUD851987 DDM851987:DDZ851987 DNI851987:DNV851987 DXE851987:DXR851987 EHA851987:EHN851987 EQW851987:ERJ851987 FAS851987:FBF851987 FKO851987:FLB851987 FUK851987:FUX851987 GEG851987:GET851987 GOC851987:GOP851987 GXY851987:GYL851987 HHU851987:HIH851987 HRQ851987:HSD851987 IBM851987:IBZ851987 ILI851987:ILV851987 IVE851987:IVR851987 JFA851987:JFN851987 JOW851987:JPJ851987 JYS851987:JZF851987 KIO851987:KJB851987 KSK851987:KSX851987 LCG851987:LCT851987 LMC851987:LMP851987 LVY851987:LWL851987 MFU851987:MGH851987 MPQ851987:MQD851987 MZM851987:MZZ851987 NJI851987:NJV851987 NTE851987:NTR851987 ODA851987:ODN851987 OMW851987:ONJ851987 OWS851987:OXF851987 PGO851987:PHB851987 PQK851987:PQX851987 QAG851987:QAT851987 QKC851987:QKP851987 QTY851987:QUL851987 RDU851987:REH851987 RNQ851987:ROD851987 RXM851987:RXZ851987 SHI851987:SHV851987 SRE851987:SRR851987 TBA851987:TBN851987 TKW851987:TLJ851987 TUS851987:TVF851987 UEO851987:UFB851987 UOK851987:UOX851987 UYG851987:UYT851987 VIC851987:VIP851987 VRY851987:VSL851987 WBU851987:WCH851987 WLQ851987:WMD851987 WVM851987:WVZ851987 E917523:R917523 JA917523:JN917523 SW917523:TJ917523 ACS917523:ADF917523 AMO917523:ANB917523 AWK917523:AWX917523 BGG917523:BGT917523 BQC917523:BQP917523 BZY917523:CAL917523 CJU917523:CKH917523 CTQ917523:CUD917523 DDM917523:DDZ917523 DNI917523:DNV917523 DXE917523:DXR917523 EHA917523:EHN917523 EQW917523:ERJ917523 FAS917523:FBF917523 FKO917523:FLB917523 FUK917523:FUX917523 GEG917523:GET917523 GOC917523:GOP917523 GXY917523:GYL917523 HHU917523:HIH917523 HRQ917523:HSD917523 IBM917523:IBZ917523 ILI917523:ILV917523 IVE917523:IVR917523 JFA917523:JFN917523 JOW917523:JPJ917523 JYS917523:JZF917523 KIO917523:KJB917523 KSK917523:KSX917523 LCG917523:LCT917523 LMC917523:LMP917523 LVY917523:LWL917523 MFU917523:MGH917523 MPQ917523:MQD917523 MZM917523:MZZ917523 NJI917523:NJV917523 NTE917523:NTR917523 ODA917523:ODN917523 OMW917523:ONJ917523 OWS917523:OXF917523 PGO917523:PHB917523 PQK917523:PQX917523 QAG917523:QAT917523 QKC917523:QKP917523 QTY917523:QUL917523 RDU917523:REH917523 RNQ917523:ROD917523 RXM917523:RXZ917523 SHI917523:SHV917523 SRE917523:SRR917523 TBA917523:TBN917523 TKW917523:TLJ917523 TUS917523:TVF917523 UEO917523:UFB917523 UOK917523:UOX917523 UYG917523:UYT917523 VIC917523:VIP917523 VRY917523:VSL917523 WBU917523:WCH917523 WLQ917523:WMD917523 WVM917523:WVZ917523 E983059:R983059 JA983059:JN983059 SW983059:TJ983059 ACS983059:ADF983059 AMO983059:ANB983059 AWK983059:AWX983059 BGG983059:BGT983059 BQC983059:BQP983059 BZY983059:CAL983059 CJU983059:CKH983059 CTQ983059:CUD983059 DDM983059:DDZ983059 DNI983059:DNV983059 DXE983059:DXR983059 EHA983059:EHN983059 EQW983059:ERJ983059 FAS983059:FBF983059 FKO983059:FLB983059 FUK983059:FUX983059 GEG983059:GET983059 GOC983059:GOP983059 GXY983059:GYL983059 HHU983059:HIH983059 HRQ983059:HSD983059 IBM983059:IBZ983059 ILI983059:ILV983059 IVE983059:IVR983059 JFA983059:JFN983059 JOW983059:JPJ983059 JYS983059:JZF983059 KIO983059:KJB983059 KSK983059:KSX983059 LCG983059:LCT983059 LMC983059:LMP983059 LVY983059:LWL983059 MFU983059:MGH983059 MPQ983059:MQD983059 MZM983059:MZZ983059 NJI983059:NJV983059 NTE983059:NTR983059 ODA983059:ODN983059 OMW983059:ONJ983059 OWS983059:OXF983059 PGO983059:PHB983059 PQK983059:PQX983059 QAG983059:QAT983059 QKC983059:QKP983059 QTY983059:QUL983059 RDU983059:REH983059 RNQ983059:ROD983059 RXM983059:RXZ983059 SHI983059:SHV983059 SRE983059:SRR983059 TBA983059:TBN983059 TKW983059:TLJ983059 TUS983059:TVF983059 UEO983059:UFB983059 UOK983059:UOX983059 UYG983059:UYT983059 VIC983059:VIP983059 VRY983059:VSL983059 WBU983059:WCH983059 WLQ983059:WMD983059 WVM983059:WVZ983059">
@@ -8208,136 +8208,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="196" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="224" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="198" t="s">
+      <c r="D2" s="225"/>
+      <c r="E2" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201" t="str">
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="229" t="str">
         <f>C2</f>
         <v>AddNewConservation</v>
       </c>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="231"/>
       <c r="T2" s="73"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="206" t="str">
+      <c r="B3" s="211"/>
+      <c r="C3" s="232" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="207"/>
-      <c r="E3" s="208" t="s">
+      <c r="D3" s="233"/>
+      <c r="E3" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="211" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="237" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="239"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="204" t="s">
+      <c r="A4" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="214"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214"/>
-      <c r="N4" s="214"/>
-      <c r="O4" s="214"/>
-      <c r="P4" s="214"/>
-      <c r="Q4" s="214"/>
-      <c r="R4" s="216"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="214"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="219" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="220"/>
-      <c r="E5" s="221" t="s">
+      <c r="D5" s="218"/>
+      <c r="E5" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="220" t="s">
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="221" t="s">
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="220"/>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="223"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="221"/>
       <c r="T5" s="73"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="227">
+      <c r="A6" s="197">
         <f>COUNTIF(E19:HM19,"P")</f>
         <v>2</v>
       </c>
-      <c r="B6" s="228"/>
-      <c r="C6" s="229">
+      <c r="B6" s="198"/>
+      <c r="C6" s="199">
         <f>COUNTIF(E19:HO19,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="231">
+      <c r="D6" s="200"/>
+      <c r="E6" s="201">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="232"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="202"/>
       <c r="I6" s="117">
         <f>COUNTIF(E18:HM18,"N")</f>
         <v>0</v>
@@ -8350,16 +8350,16 @@
         <f>COUNTIF(E18:HM18,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="231">
+      <c r="L6" s="201">
         <f>COUNTA(E8:P8)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="230"/>
-      <c r="N6" s="230"/>
-      <c r="O6" s="230"/>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="233"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="203"/>
       <c r="S6" s="118"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -8595,11 +8595,11 @@
       <c r="A18" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="234" t="s">
+      <c r="B18" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="235"/>
-      <c r="D18" s="236"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="206"/>
       <c r="E18" s="157" t="s">
         <v>36</v>
       </c>
@@ -8621,11 +8621,11 @@
     </row>
     <row r="19" spans="1:18" ht="13.5" customHeight="1">
       <c r="A19" s="136"/>
-      <c r="B19" s="237" t="s">
+      <c r="B19" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="238"/>
-      <c r="D19" s="239"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="134" t="s">
         <v>38</v>
       </c>
@@ -8647,11 +8647,11 @@
     </row>
     <row r="20" spans="1:18" ht="64.5" customHeight="1">
       <c r="A20" s="136"/>
-      <c r="B20" s="224" t="s">
+      <c r="B20" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="225"/>
-      <c r="D20" s="226"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="196"/>
       <c r="E20" s="133">
         <v>42594</v>
       </c>
@@ -8766,20 +8766,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -8788,6 +8774,20 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:R19 JA19:JN19 SW19:TJ19 ACS19:ADF19 AMO19:ANB19 AWK19:AWX19 BGG19:BGT19 BQC19:BQP19 BZY19:CAL19 CJU19:CKH19 CTQ19:CUD19 DDM19:DDZ19 DNI19:DNV19 DXE19:DXR19 EHA19:EHN19 EQW19:ERJ19 FAS19:FBF19 FKO19:FLB19 FUK19:FUX19 GEG19:GET19 GOC19:GOP19 GXY19:GYL19 HHU19:HIH19 HRQ19:HSD19 IBM19:IBZ19 ILI19:ILV19 IVE19:IVR19 JFA19:JFN19 JOW19:JPJ19 JYS19:JZF19 KIO19:KJB19 KSK19:KSX19 LCG19:LCT19 LMC19:LMP19 LVY19:LWL19 MFU19:MGH19 MPQ19:MQD19 MZM19:MZZ19 NJI19:NJV19 NTE19:NTR19 ODA19:ODN19 OMW19:ONJ19 OWS19:OXF19 PGO19:PHB19 PQK19:PQX19 QAG19:QAT19 QKC19:QKP19 QTY19:QUL19 RDU19:REH19 RNQ19:ROD19 RXM19:RXZ19 SHI19:SHV19 SRE19:SRR19 TBA19:TBN19 TKW19:TLJ19 TUS19:TVF19 UEO19:UFB19 UOK19:UOX19 UYG19:UYT19 VIC19:VIP19 VRY19:VSL19 WBU19:WCH19 WLQ19:WMD19 WVM19:WVZ19 E65555:R65555 JA65555:JN65555 SW65555:TJ65555 ACS65555:ADF65555 AMO65555:ANB65555 AWK65555:AWX65555 BGG65555:BGT65555 BQC65555:BQP65555 BZY65555:CAL65555 CJU65555:CKH65555 CTQ65555:CUD65555 DDM65555:DDZ65555 DNI65555:DNV65555 DXE65555:DXR65555 EHA65555:EHN65555 EQW65555:ERJ65555 FAS65555:FBF65555 FKO65555:FLB65555 FUK65555:FUX65555 GEG65555:GET65555 GOC65555:GOP65555 GXY65555:GYL65555 HHU65555:HIH65555 HRQ65555:HSD65555 IBM65555:IBZ65555 ILI65555:ILV65555 IVE65555:IVR65555 JFA65555:JFN65555 JOW65555:JPJ65555 JYS65555:JZF65555 KIO65555:KJB65555 KSK65555:KSX65555 LCG65555:LCT65555 LMC65555:LMP65555 LVY65555:LWL65555 MFU65555:MGH65555 MPQ65555:MQD65555 MZM65555:MZZ65555 NJI65555:NJV65555 NTE65555:NTR65555 ODA65555:ODN65555 OMW65555:ONJ65555 OWS65555:OXF65555 PGO65555:PHB65555 PQK65555:PQX65555 QAG65555:QAT65555 QKC65555:QKP65555 QTY65555:QUL65555 RDU65555:REH65555 RNQ65555:ROD65555 RXM65555:RXZ65555 SHI65555:SHV65555 SRE65555:SRR65555 TBA65555:TBN65555 TKW65555:TLJ65555 TUS65555:TVF65555 UEO65555:UFB65555 UOK65555:UOX65555 UYG65555:UYT65555 VIC65555:VIP65555 VRY65555:VSL65555 WBU65555:WCH65555 WLQ65555:WMD65555 WVM65555:WVZ65555 E131091:R131091 JA131091:JN131091 SW131091:TJ131091 ACS131091:ADF131091 AMO131091:ANB131091 AWK131091:AWX131091 BGG131091:BGT131091 BQC131091:BQP131091 BZY131091:CAL131091 CJU131091:CKH131091 CTQ131091:CUD131091 DDM131091:DDZ131091 DNI131091:DNV131091 DXE131091:DXR131091 EHA131091:EHN131091 EQW131091:ERJ131091 FAS131091:FBF131091 FKO131091:FLB131091 FUK131091:FUX131091 GEG131091:GET131091 GOC131091:GOP131091 GXY131091:GYL131091 HHU131091:HIH131091 HRQ131091:HSD131091 IBM131091:IBZ131091 ILI131091:ILV131091 IVE131091:IVR131091 JFA131091:JFN131091 JOW131091:JPJ131091 JYS131091:JZF131091 KIO131091:KJB131091 KSK131091:KSX131091 LCG131091:LCT131091 LMC131091:LMP131091 LVY131091:LWL131091 MFU131091:MGH131091 MPQ131091:MQD131091 MZM131091:MZZ131091 NJI131091:NJV131091 NTE131091:NTR131091 ODA131091:ODN131091 OMW131091:ONJ131091 OWS131091:OXF131091 PGO131091:PHB131091 PQK131091:PQX131091 QAG131091:QAT131091 QKC131091:QKP131091 QTY131091:QUL131091 RDU131091:REH131091 RNQ131091:ROD131091 RXM131091:RXZ131091 SHI131091:SHV131091 SRE131091:SRR131091 TBA131091:TBN131091 TKW131091:TLJ131091 TUS131091:TVF131091 UEO131091:UFB131091 UOK131091:UOX131091 UYG131091:UYT131091 VIC131091:VIP131091 VRY131091:VSL131091 WBU131091:WCH131091 WLQ131091:WMD131091 WVM131091:WVZ131091 E196627:R196627 JA196627:JN196627 SW196627:TJ196627 ACS196627:ADF196627 AMO196627:ANB196627 AWK196627:AWX196627 BGG196627:BGT196627 BQC196627:BQP196627 BZY196627:CAL196627 CJU196627:CKH196627 CTQ196627:CUD196627 DDM196627:DDZ196627 DNI196627:DNV196627 DXE196627:DXR196627 EHA196627:EHN196627 EQW196627:ERJ196627 FAS196627:FBF196627 FKO196627:FLB196627 FUK196627:FUX196627 GEG196627:GET196627 GOC196627:GOP196627 GXY196627:GYL196627 HHU196627:HIH196627 HRQ196627:HSD196627 IBM196627:IBZ196627 ILI196627:ILV196627 IVE196627:IVR196627 JFA196627:JFN196627 JOW196627:JPJ196627 JYS196627:JZF196627 KIO196627:KJB196627 KSK196627:KSX196627 LCG196627:LCT196627 LMC196627:LMP196627 LVY196627:LWL196627 MFU196627:MGH196627 MPQ196627:MQD196627 MZM196627:MZZ196627 NJI196627:NJV196627 NTE196627:NTR196627 ODA196627:ODN196627 OMW196627:ONJ196627 OWS196627:OXF196627 PGO196627:PHB196627 PQK196627:PQX196627 QAG196627:QAT196627 QKC196627:QKP196627 QTY196627:QUL196627 RDU196627:REH196627 RNQ196627:ROD196627 RXM196627:RXZ196627 SHI196627:SHV196627 SRE196627:SRR196627 TBA196627:TBN196627 TKW196627:TLJ196627 TUS196627:TVF196627 UEO196627:UFB196627 UOK196627:UOX196627 UYG196627:UYT196627 VIC196627:VIP196627 VRY196627:VSL196627 WBU196627:WCH196627 WLQ196627:WMD196627 WVM196627:WVZ196627 E262163:R262163 JA262163:JN262163 SW262163:TJ262163 ACS262163:ADF262163 AMO262163:ANB262163 AWK262163:AWX262163 BGG262163:BGT262163 BQC262163:BQP262163 BZY262163:CAL262163 CJU262163:CKH262163 CTQ262163:CUD262163 DDM262163:DDZ262163 DNI262163:DNV262163 DXE262163:DXR262163 EHA262163:EHN262163 EQW262163:ERJ262163 FAS262163:FBF262163 FKO262163:FLB262163 FUK262163:FUX262163 GEG262163:GET262163 GOC262163:GOP262163 GXY262163:GYL262163 HHU262163:HIH262163 HRQ262163:HSD262163 IBM262163:IBZ262163 ILI262163:ILV262163 IVE262163:IVR262163 JFA262163:JFN262163 JOW262163:JPJ262163 JYS262163:JZF262163 KIO262163:KJB262163 KSK262163:KSX262163 LCG262163:LCT262163 LMC262163:LMP262163 LVY262163:LWL262163 MFU262163:MGH262163 MPQ262163:MQD262163 MZM262163:MZZ262163 NJI262163:NJV262163 NTE262163:NTR262163 ODA262163:ODN262163 OMW262163:ONJ262163 OWS262163:OXF262163 PGO262163:PHB262163 PQK262163:PQX262163 QAG262163:QAT262163 QKC262163:QKP262163 QTY262163:QUL262163 RDU262163:REH262163 RNQ262163:ROD262163 RXM262163:RXZ262163 SHI262163:SHV262163 SRE262163:SRR262163 TBA262163:TBN262163 TKW262163:TLJ262163 TUS262163:TVF262163 UEO262163:UFB262163 UOK262163:UOX262163 UYG262163:UYT262163 VIC262163:VIP262163 VRY262163:VSL262163 WBU262163:WCH262163 WLQ262163:WMD262163 WVM262163:WVZ262163 E327699:R327699 JA327699:JN327699 SW327699:TJ327699 ACS327699:ADF327699 AMO327699:ANB327699 AWK327699:AWX327699 BGG327699:BGT327699 BQC327699:BQP327699 BZY327699:CAL327699 CJU327699:CKH327699 CTQ327699:CUD327699 DDM327699:DDZ327699 DNI327699:DNV327699 DXE327699:DXR327699 EHA327699:EHN327699 EQW327699:ERJ327699 FAS327699:FBF327699 FKO327699:FLB327699 FUK327699:FUX327699 GEG327699:GET327699 GOC327699:GOP327699 GXY327699:GYL327699 HHU327699:HIH327699 HRQ327699:HSD327699 IBM327699:IBZ327699 ILI327699:ILV327699 IVE327699:IVR327699 JFA327699:JFN327699 JOW327699:JPJ327699 JYS327699:JZF327699 KIO327699:KJB327699 KSK327699:KSX327699 LCG327699:LCT327699 LMC327699:LMP327699 LVY327699:LWL327699 MFU327699:MGH327699 MPQ327699:MQD327699 MZM327699:MZZ327699 NJI327699:NJV327699 NTE327699:NTR327699 ODA327699:ODN327699 OMW327699:ONJ327699 OWS327699:OXF327699 PGO327699:PHB327699 PQK327699:PQX327699 QAG327699:QAT327699 QKC327699:QKP327699 QTY327699:QUL327699 RDU327699:REH327699 RNQ327699:ROD327699 RXM327699:RXZ327699 SHI327699:SHV327699 SRE327699:SRR327699 TBA327699:TBN327699 TKW327699:TLJ327699 TUS327699:TVF327699 UEO327699:UFB327699 UOK327699:UOX327699 UYG327699:UYT327699 VIC327699:VIP327699 VRY327699:VSL327699 WBU327699:WCH327699 WLQ327699:WMD327699 WVM327699:WVZ327699 E393235:R393235 JA393235:JN393235 SW393235:TJ393235 ACS393235:ADF393235 AMO393235:ANB393235 AWK393235:AWX393235 BGG393235:BGT393235 BQC393235:BQP393235 BZY393235:CAL393235 CJU393235:CKH393235 CTQ393235:CUD393235 DDM393235:DDZ393235 DNI393235:DNV393235 DXE393235:DXR393235 EHA393235:EHN393235 EQW393235:ERJ393235 FAS393235:FBF393235 FKO393235:FLB393235 FUK393235:FUX393235 GEG393235:GET393235 GOC393235:GOP393235 GXY393235:GYL393235 HHU393235:HIH393235 HRQ393235:HSD393235 IBM393235:IBZ393235 ILI393235:ILV393235 IVE393235:IVR393235 JFA393235:JFN393235 JOW393235:JPJ393235 JYS393235:JZF393235 KIO393235:KJB393235 KSK393235:KSX393235 LCG393235:LCT393235 LMC393235:LMP393235 LVY393235:LWL393235 MFU393235:MGH393235 MPQ393235:MQD393235 MZM393235:MZZ393235 NJI393235:NJV393235 NTE393235:NTR393235 ODA393235:ODN393235 OMW393235:ONJ393235 OWS393235:OXF393235 PGO393235:PHB393235 PQK393235:PQX393235 QAG393235:QAT393235 QKC393235:QKP393235 QTY393235:QUL393235 RDU393235:REH393235 RNQ393235:ROD393235 RXM393235:RXZ393235 SHI393235:SHV393235 SRE393235:SRR393235 TBA393235:TBN393235 TKW393235:TLJ393235 TUS393235:TVF393235 UEO393235:UFB393235 UOK393235:UOX393235 UYG393235:UYT393235 VIC393235:VIP393235 VRY393235:VSL393235 WBU393235:WCH393235 WLQ393235:WMD393235 WVM393235:WVZ393235 E458771:R458771 JA458771:JN458771 SW458771:TJ458771 ACS458771:ADF458771 AMO458771:ANB458771 AWK458771:AWX458771 BGG458771:BGT458771 BQC458771:BQP458771 BZY458771:CAL458771 CJU458771:CKH458771 CTQ458771:CUD458771 DDM458771:DDZ458771 DNI458771:DNV458771 DXE458771:DXR458771 EHA458771:EHN458771 EQW458771:ERJ458771 FAS458771:FBF458771 FKO458771:FLB458771 FUK458771:FUX458771 GEG458771:GET458771 GOC458771:GOP458771 GXY458771:GYL458771 HHU458771:HIH458771 HRQ458771:HSD458771 IBM458771:IBZ458771 ILI458771:ILV458771 IVE458771:IVR458771 JFA458771:JFN458771 JOW458771:JPJ458771 JYS458771:JZF458771 KIO458771:KJB458771 KSK458771:KSX458771 LCG458771:LCT458771 LMC458771:LMP458771 LVY458771:LWL458771 MFU458771:MGH458771 MPQ458771:MQD458771 MZM458771:MZZ458771 NJI458771:NJV458771 NTE458771:NTR458771 ODA458771:ODN458771 OMW458771:ONJ458771 OWS458771:OXF458771 PGO458771:PHB458771 PQK458771:PQX458771 QAG458771:QAT458771 QKC458771:QKP458771 QTY458771:QUL458771 RDU458771:REH458771 RNQ458771:ROD458771 RXM458771:RXZ458771 SHI458771:SHV458771 SRE458771:SRR458771 TBA458771:TBN458771 TKW458771:TLJ458771 TUS458771:TVF458771 UEO458771:UFB458771 UOK458771:UOX458771 UYG458771:UYT458771 VIC458771:VIP458771 VRY458771:VSL458771 WBU458771:WCH458771 WLQ458771:WMD458771 WVM458771:WVZ458771 E524307:R524307 JA524307:JN524307 SW524307:TJ524307 ACS524307:ADF524307 AMO524307:ANB524307 AWK524307:AWX524307 BGG524307:BGT524307 BQC524307:BQP524307 BZY524307:CAL524307 CJU524307:CKH524307 CTQ524307:CUD524307 DDM524307:DDZ524307 DNI524307:DNV524307 DXE524307:DXR524307 EHA524307:EHN524307 EQW524307:ERJ524307 FAS524307:FBF524307 FKO524307:FLB524307 FUK524307:FUX524307 GEG524307:GET524307 GOC524307:GOP524307 GXY524307:GYL524307 HHU524307:HIH524307 HRQ524307:HSD524307 IBM524307:IBZ524307 ILI524307:ILV524307 IVE524307:IVR524307 JFA524307:JFN524307 JOW524307:JPJ524307 JYS524307:JZF524307 KIO524307:KJB524307 KSK524307:KSX524307 LCG524307:LCT524307 LMC524307:LMP524307 LVY524307:LWL524307 MFU524307:MGH524307 MPQ524307:MQD524307 MZM524307:MZZ524307 NJI524307:NJV524307 NTE524307:NTR524307 ODA524307:ODN524307 OMW524307:ONJ524307 OWS524307:OXF524307 PGO524307:PHB524307 PQK524307:PQX524307 QAG524307:QAT524307 QKC524307:QKP524307 QTY524307:QUL524307 RDU524307:REH524307 RNQ524307:ROD524307 RXM524307:RXZ524307 SHI524307:SHV524307 SRE524307:SRR524307 TBA524307:TBN524307 TKW524307:TLJ524307 TUS524307:TVF524307 UEO524307:UFB524307 UOK524307:UOX524307 UYG524307:UYT524307 VIC524307:VIP524307 VRY524307:VSL524307 WBU524307:WCH524307 WLQ524307:WMD524307 WVM524307:WVZ524307 E589843:R589843 JA589843:JN589843 SW589843:TJ589843 ACS589843:ADF589843 AMO589843:ANB589843 AWK589843:AWX589843 BGG589843:BGT589843 BQC589843:BQP589843 BZY589843:CAL589843 CJU589843:CKH589843 CTQ589843:CUD589843 DDM589843:DDZ589843 DNI589843:DNV589843 DXE589843:DXR589843 EHA589843:EHN589843 EQW589843:ERJ589843 FAS589843:FBF589843 FKO589843:FLB589843 FUK589843:FUX589843 GEG589843:GET589843 GOC589843:GOP589843 GXY589843:GYL589843 HHU589843:HIH589843 HRQ589843:HSD589843 IBM589843:IBZ589843 ILI589843:ILV589843 IVE589843:IVR589843 JFA589843:JFN589843 JOW589843:JPJ589843 JYS589843:JZF589843 KIO589843:KJB589843 KSK589843:KSX589843 LCG589843:LCT589843 LMC589843:LMP589843 LVY589843:LWL589843 MFU589843:MGH589843 MPQ589843:MQD589843 MZM589843:MZZ589843 NJI589843:NJV589843 NTE589843:NTR589843 ODA589843:ODN589843 OMW589843:ONJ589843 OWS589843:OXF589843 PGO589843:PHB589843 PQK589843:PQX589843 QAG589843:QAT589843 QKC589843:QKP589843 QTY589843:QUL589843 RDU589843:REH589843 RNQ589843:ROD589843 RXM589843:RXZ589843 SHI589843:SHV589843 SRE589843:SRR589843 TBA589843:TBN589843 TKW589843:TLJ589843 TUS589843:TVF589843 UEO589843:UFB589843 UOK589843:UOX589843 UYG589843:UYT589843 VIC589843:VIP589843 VRY589843:VSL589843 WBU589843:WCH589843 WLQ589843:WMD589843 WVM589843:WVZ589843 E655379:R655379 JA655379:JN655379 SW655379:TJ655379 ACS655379:ADF655379 AMO655379:ANB655379 AWK655379:AWX655379 BGG655379:BGT655379 BQC655379:BQP655379 BZY655379:CAL655379 CJU655379:CKH655379 CTQ655379:CUD655379 DDM655379:DDZ655379 DNI655379:DNV655379 DXE655379:DXR655379 EHA655379:EHN655379 EQW655379:ERJ655379 FAS655379:FBF655379 FKO655379:FLB655379 FUK655379:FUX655379 GEG655379:GET655379 GOC655379:GOP655379 GXY655379:GYL655379 HHU655379:HIH655379 HRQ655379:HSD655379 IBM655379:IBZ655379 ILI655379:ILV655379 IVE655379:IVR655379 JFA655379:JFN655379 JOW655379:JPJ655379 JYS655379:JZF655379 KIO655379:KJB655379 KSK655379:KSX655379 LCG655379:LCT655379 LMC655379:LMP655379 LVY655379:LWL655379 MFU655379:MGH655379 MPQ655379:MQD655379 MZM655379:MZZ655379 NJI655379:NJV655379 NTE655379:NTR655379 ODA655379:ODN655379 OMW655379:ONJ655379 OWS655379:OXF655379 PGO655379:PHB655379 PQK655379:PQX655379 QAG655379:QAT655379 QKC655379:QKP655379 QTY655379:QUL655379 RDU655379:REH655379 RNQ655379:ROD655379 RXM655379:RXZ655379 SHI655379:SHV655379 SRE655379:SRR655379 TBA655379:TBN655379 TKW655379:TLJ655379 TUS655379:TVF655379 UEO655379:UFB655379 UOK655379:UOX655379 UYG655379:UYT655379 VIC655379:VIP655379 VRY655379:VSL655379 WBU655379:WCH655379 WLQ655379:WMD655379 WVM655379:WVZ655379 E720915:R720915 JA720915:JN720915 SW720915:TJ720915 ACS720915:ADF720915 AMO720915:ANB720915 AWK720915:AWX720915 BGG720915:BGT720915 BQC720915:BQP720915 BZY720915:CAL720915 CJU720915:CKH720915 CTQ720915:CUD720915 DDM720915:DDZ720915 DNI720915:DNV720915 DXE720915:DXR720915 EHA720915:EHN720915 EQW720915:ERJ720915 FAS720915:FBF720915 FKO720915:FLB720915 FUK720915:FUX720915 GEG720915:GET720915 GOC720915:GOP720915 GXY720915:GYL720915 HHU720915:HIH720915 HRQ720915:HSD720915 IBM720915:IBZ720915 ILI720915:ILV720915 IVE720915:IVR720915 JFA720915:JFN720915 JOW720915:JPJ720915 JYS720915:JZF720915 KIO720915:KJB720915 KSK720915:KSX720915 LCG720915:LCT720915 LMC720915:LMP720915 LVY720915:LWL720915 MFU720915:MGH720915 MPQ720915:MQD720915 MZM720915:MZZ720915 NJI720915:NJV720915 NTE720915:NTR720915 ODA720915:ODN720915 OMW720915:ONJ720915 OWS720915:OXF720915 PGO720915:PHB720915 PQK720915:PQX720915 QAG720915:QAT720915 QKC720915:QKP720915 QTY720915:QUL720915 RDU720915:REH720915 RNQ720915:ROD720915 RXM720915:RXZ720915 SHI720915:SHV720915 SRE720915:SRR720915 TBA720915:TBN720915 TKW720915:TLJ720915 TUS720915:TVF720915 UEO720915:UFB720915 UOK720915:UOX720915 UYG720915:UYT720915 VIC720915:VIP720915 VRY720915:VSL720915 WBU720915:WCH720915 WLQ720915:WMD720915 WVM720915:WVZ720915 E786451:R786451 JA786451:JN786451 SW786451:TJ786451 ACS786451:ADF786451 AMO786451:ANB786451 AWK786451:AWX786451 BGG786451:BGT786451 BQC786451:BQP786451 BZY786451:CAL786451 CJU786451:CKH786451 CTQ786451:CUD786451 DDM786451:DDZ786451 DNI786451:DNV786451 DXE786451:DXR786451 EHA786451:EHN786451 EQW786451:ERJ786451 FAS786451:FBF786451 FKO786451:FLB786451 FUK786451:FUX786451 GEG786451:GET786451 GOC786451:GOP786451 GXY786451:GYL786451 HHU786451:HIH786451 HRQ786451:HSD786451 IBM786451:IBZ786451 ILI786451:ILV786451 IVE786451:IVR786451 JFA786451:JFN786451 JOW786451:JPJ786451 JYS786451:JZF786451 KIO786451:KJB786451 KSK786451:KSX786451 LCG786451:LCT786451 LMC786451:LMP786451 LVY786451:LWL786451 MFU786451:MGH786451 MPQ786451:MQD786451 MZM786451:MZZ786451 NJI786451:NJV786451 NTE786451:NTR786451 ODA786451:ODN786451 OMW786451:ONJ786451 OWS786451:OXF786451 PGO786451:PHB786451 PQK786451:PQX786451 QAG786451:QAT786451 QKC786451:QKP786451 QTY786451:QUL786451 RDU786451:REH786451 RNQ786451:ROD786451 RXM786451:RXZ786451 SHI786451:SHV786451 SRE786451:SRR786451 TBA786451:TBN786451 TKW786451:TLJ786451 TUS786451:TVF786451 UEO786451:UFB786451 UOK786451:UOX786451 UYG786451:UYT786451 VIC786451:VIP786451 VRY786451:VSL786451 WBU786451:WCH786451 WLQ786451:WMD786451 WVM786451:WVZ786451 E851987:R851987 JA851987:JN851987 SW851987:TJ851987 ACS851987:ADF851987 AMO851987:ANB851987 AWK851987:AWX851987 BGG851987:BGT851987 BQC851987:BQP851987 BZY851987:CAL851987 CJU851987:CKH851987 CTQ851987:CUD851987 DDM851987:DDZ851987 DNI851987:DNV851987 DXE851987:DXR851987 EHA851987:EHN851987 EQW851987:ERJ851987 FAS851987:FBF851987 FKO851987:FLB851987 FUK851987:FUX851987 GEG851987:GET851987 GOC851987:GOP851987 GXY851987:GYL851987 HHU851987:HIH851987 HRQ851987:HSD851987 IBM851987:IBZ851987 ILI851987:ILV851987 IVE851987:IVR851987 JFA851987:JFN851987 JOW851987:JPJ851987 JYS851987:JZF851987 KIO851987:KJB851987 KSK851987:KSX851987 LCG851987:LCT851987 LMC851987:LMP851987 LVY851987:LWL851987 MFU851987:MGH851987 MPQ851987:MQD851987 MZM851987:MZZ851987 NJI851987:NJV851987 NTE851987:NTR851987 ODA851987:ODN851987 OMW851987:ONJ851987 OWS851987:OXF851987 PGO851987:PHB851987 PQK851987:PQX851987 QAG851987:QAT851987 QKC851987:QKP851987 QTY851987:QUL851987 RDU851987:REH851987 RNQ851987:ROD851987 RXM851987:RXZ851987 SHI851987:SHV851987 SRE851987:SRR851987 TBA851987:TBN851987 TKW851987:TLJ851987 TUS851987:TVF851987 UEO851987:UFB851987 UOK851987:UOX851987 UYG851987:UYT851987 VIC851987:VIP851987 VRY851987:VSL851987 WBU851987:WCH851987 WLQ851987:WMD851987 WVM851987:WVZ851987 E917523:R917523 JA917523:JN917523 SW917523:TJ917523 ACS917523:ADF917523 AMO917523:ANB917523 AWK917523:AWX917523 BGG917523:BGT917523 BQC917523:BQP917523 BZY917523:CAL917523 CJU917523:CKH917523 CTQ917523:CUD917523 DDM917523:DDZ917523 DNI917523:DNV917523 DXE917523:DXR917523 EHA917523:EHN917523 EQW917523:ERJ917523 FAS917523:FBF917523 FKO917523:FLB917523 FUK917523:FUX917523 GEG917523:GET917523 GOC917523:GOP917523 GXY917523:GYL917523 HHU917523:HIH917523 HRQ917523:HSD917523 IBM917523:IBZ917523 ILI917523:ILV917523 IVE917523:IVR917523 JFA917523:JFN917523 JOW917523:JPJ917523 JYS917523:JZF917523 KIO917523:KJB917523 KSK917523:KSX917523 LCG917523:LCT917523 LMC917523:LMP917523 LVY917523:LWL917523 MFU917523:MGH917523 MPQ917523:MQD917523 MZM917523:MZZ917523 NJI917523:NJV917523 NTE917523:NTR917523 ODA917523:ODN917523 OMW917523:ONJ917523 OWS917523:OXF917523 PGO917523:PHB917523 PQK917523:PQX917523 QAG917523:QAT917523 QKC917523:QKP917523 QTY917523:QUL917523 RDU917523:REH917523 RNQ917523:ROD917523 RXM917523:RXZ917523 SHI917523:SHV917523 SRE917523:SRR917523 TBA917523:TBN917523 TKW917523:TLJ917523 TUS917523:TVF917523 UEO917523:UFB917523 UOK917523:UOX917523 UYG917523:UYT917523 VIC917523:VIP917523 VRY917523:VSL917523 WBU917523:WCH917523 WLQ917523:WMD917523 WVM917523:WVZ917523 E983059:R983059 JA983059:JN983059 SW983059:TJ983059 ACS983059:ADF983059 AMO983059:ANB983059 AWK983059:AWX983059 BGG983059:BGT983059 BQC983059:BQP983059 BZY983059:CAL983059 CJU983059:CKH983059 CTQ983059:CUD983059 DDM983059:DDZ983059 DNI983059:DNV983059 DXE983059:DXR983059 EHA983059:EHN983059 EQW983059:ERJ983059 FAS983059:FBF983059 FKO983059:FLB983059 FUK983059:FUX983059 GEG983059:GET983059 GOC983059:GOP983059 GXY983059:GYL983059 HHU983059:HIH983059 HRQ983059:HSD983059 IBM983059:IBZ983059 ILI983059:ILV983059 IVE983059:IVR983059 JFA983059:JFN983059 JOW983059:JPJ983059 JYS983059:JZF983059 KIO983059:KJB983059 KSK983059:KSX983059 LCG983059:LCT983059 LMC983059:LMP983059 LVY983059:LWL983059 MFU983059:MGH983059 MPQ983059:MQD983059 MZM983059:MZZ983059 NJI983059:NJV983059 NTE983059:NTR983059 ODA983059:ODN983059 OMW983059:ONJ983059 OWS983059:OXF983059 PGO983059:PHB983059 PQK983059:PQX983059 QAG983059:QAT983059 QKC983059:QKP983059 QTY983059:QUL983059 RDU983059:REH983059 RNQ983059:ROD983059 RXM983059:RXZ983059 SHI983059:SHV983059 SRE983059:SRR983059 TBA983059:TBN983059 TKW983059:TLJ983059 TUS983059:TVF983059 UEO983059:UFB983059 UOK983059:UOX983059 UYG983059:UYT983059 VIC983059:VIP983059 VRY983059:VSL983059 WBU983059:WCH983059 WLQ983059:WMD983059 WVM983059:WVZ983059">
@@ -9343,136 +9343,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="196" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="224" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="198" t="s">
+      <c r="D2" s="225"/>
+      <c r="E2" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201" t="str">
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="229" t="str">
         <f>C2</f>
         <v>GetConservationById</v>
       </c>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="231"/>
       <c r="T2" s="73"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="206" t="str">
+      <c r="B3" s="211"/>
+      <c r="C3" s="232" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="207"/>
-      <c r="E3" s="208" t="s">
+      <c r="D3" s="233"/>
+      <c r="E3" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="211" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="237" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="239"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="204" t="s">
+      <c r="A4" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="214"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214"/>
-      <c r="N4" s="214"/>
-      <c r="O4" s="214"/>
-      <c r="P4" s="214"/>
-      <c r="Q4" s="214"/>
-      <c r="R4" s="216"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="214"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="219" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="220"/>
-      <c r="E5" s="221" t="s">
+      <c r="D5" s="218"/>
+      <c r="E5" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="220" t="s">
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="221" t="s">
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="220"/>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="223"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="221"/>
       <c r="T5" s="73"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="227">
+      <c r="A6" s="197">
         <f>COUNTIF(E19:HM19,"P")</f>
         <v>2</v>
       </c>
-      <c r="B6" s="228"/>
-      <c r="C6" s="229">
+      <c r="B6" s="198"/>
+      <c r="C6" s="199">
         <f>COUNTIF(E19:HO19,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="231">
+      <c r="D6" s="200"/>
+      <c r="E6" s="201">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="232"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="202"/>
       <c r="I6" s="117">
         <f>COUNTIF(E18:HM18,"N")</f>
         <v>0</v>
@@ -9485,16 +9485,16 @@
         <f>COUNTIF(E18:HM18,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="231">
+      <c r="L6" s="201">
         <f>COUNTA(E8:P8)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="230"/>
-      <c r="N6" s="230"/>
-      <c r="O6" s="230"/>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="233"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="203"/>
       <c r="S6" s="118"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -9769,11 +9769,11 @@
     </row>
     <row r="19" spans="1:18" ht="13.5" customHeight="1">
       <c r="A19" s="136"/>
-      <c r="B19" s="237" t="s">
+      <c r="B19" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="238"/>
-      <c r="D19" s="239"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="134" t="s">
         <v>38</v>
       </c>
@@ -9795,11 +9795,11 @@
     </row>
     <row r="20" spans="1:18" ht="60" customHeight="1">
       <c r="A20" s="136"/>
-      <c r="B20" s="224" t="s">
+      <c r="B20" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="225"/>
-      <c r="D20" s="226"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="196"/>
       <c r="E20" s="133">
         <v>42594</v>
       </c>
@@ -9928,11 +9928,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:R3"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="L6:R6"/>
     <mergeCell ref="A4:B4"/>
@@ -9942,14 +9945,11 @@
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:R5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM983059:WVZ983059 JA19:JN19 SW19:TJ19 ACS19:ADF19 AMO19:ANB19 AWK19:AWX19 BGG19:BGT19 BQC19:BQP19 BZY19:CAL19 CJU19:CKH19 CTQ19:CUD19 DDM19:DDZ19 DNI19:DNV19 DXE19:DXR19 EHA19:EHN19 EQW19:ERJ19 FAS19:FBF19 FKO19:FLB19 FUK19:FUX19 GEG19:GET19 GOC19:GOP19 GXY19:GYL19 HHU19:HIH19 HRQ19:HSD19 IBM19:IBZ19 ILI19:ILV19 IVE19:IVR19 JFA19:JFN19 JOW19:JPJ19 JYS19:JZF19 KIO19:KJB19 KSK19:KSX19 LCG19:LCT19 LMC19:LMP19 LVY19:LWL19 MFU19:MGH19 MPQ19:MQD19 MZM19:MZZ19 NJI19:NJV19 NTE19:NTR19 ODA19:ODN19 OMW19:ONJ19 OWS19:OXF19 PGO19:PHB19 PQK19:PQX19 QAG19:QAT19 QKC19:QKP19 QTY19:QUL19 RDU19:REH19 RNQ19:ROD19 RXM19:RXZ19 SHI19:SHV19 SRE19:SRR19 TBA19:TBN19 TKW19:TLJ19 TUS19:TVF19 UEO19:UFB19 UOK19:UOX19 UYG19:UYT19 VIC19:VIP19 VRY19:VSL19 WBU19:WCH19 WLQ19:WMD19 WVM19:WVZ19 E65555:R65555 JA65555:JN65555 SW65555:TJ65555 ACS65555:ADF65555 AMO65555:ANB65555 AWK65555:AWX65555 BGG65555:BGT65555 BQC65555:BQP65555 BZY65555:CAL65555 CJU65555:CKH65555 CTQ65555:CUD65555 DDM65555:DDZ65555 DNI65555:DNV65555 DXE65555:DXR65555 EHA65555:EHN65555 EQW65555:ERJ65555 FAS65555:FBF65555 FKO65555:FLB65555 FUK65555:FUX65555 GEG65555:GET65555 GOC65555:GOP65555 GXY65555:GYL65555 HHU65555:HIH65555 HRQ65555:HSD65555 IBM65555:IBZ65555 ILI65555:ILV65555 IVE65555:IVR65555 JFA65555:JFN65555 JOW65555:JPJ65555 JYS65555:JZF65555 KIO65555:KJB65555 KSK65555:KSX65555 LCG65555:LCT65555 LMC65555:LMP65555 LVY65555:LWL65555 MFU65555:MGH65555 MPQ65555:MQD65555 MZM65555:MZZ65555 NJI65555:NJV65555 NTE65555:NTR65555 ODA65555:ODN65555 OMW65555:ONJ65555 OWS65555:OXF65555 PGO65555:PHB65555 PQK65555:PQX65555 QAG65555:QAT65555 QKC65555:QKP65555 QTY65555:QUL65555 RDU65555:REH65555 RNQ65555:ROD65555 RXM65555:RXZ65555 SHI65555:SHV65555 SRE65555:SRR65555 TBA65555:TBN65555 TKW65555:TLJ65555 TUS65555:TVF65555 UEO65555:UFB65555 UOK65555:UOX65555 UYG65555:UYT65555 VIC65555:VIP65555 VRY65555:VSL65555 WBU65555:WCH65555 WLQ65555:WMD65555 WVM65555:WVZ65555 E131091:R131091 JA131091:JN131091 SW131091:TJ131091 ACS131091:ADF131091 AMO131091:ANB131091 AWK131091:AWX131091 BGG131091:BGT131091 BQC131091:BQP131091 BZY131091:CAL131091 CJU131091:CKH131091 CTQ131091:CUD131091 DDM131091:DDZ131091 DNI131091:DNV131091 DXE131091:DXR131091 EHA131091:EHN131091 EQW131091:ERJ131091 FAS131091:FBF131091 FKO131091:FLB131091 FUK131091:FUX131091 GEG131091:GET131091 GOC131091:GOP131091 GXY131091:GYL131091 HHU131091:HIH131091 HRQ131091:HSD131091 IBM131091:IBZ131091 ILI131091:ILV131091 IVE131091:IVR131091 JFA131091:JFN131091 JOW131091:JPJ131091 JYS131091:JZF131091 KIO131091:KJB131091 KSK131091:KSX131091 LCG131091:LCT131091 LMC131091:LMP131091 LVY131091:LWL131091 MFU131091:MGH131091 MPQ131091:MQD131091 MZM131091:MZZ131091 NJI131091:NJV131091 NTE131091:NTR131091 ODA131091:ODN131091 OMW131091:ONJ131091 OWS131091:OXF131091 PGO131091:PHB131091 PQK131091:PQX131091 QAG131091:QAT131091 QKC131091:QKP131091 QTY131091:QUL131091 RDU131091:REH131091 RNQ131091:ROD131091 RXM131091:RXZ131091 SHI131091:SHV131091 SRE131091:SRR131091 TBA131091:TBN131091 TKW131091:TLJ131091 TUS131091:TVF131091 UEO131091:UFB131091 UOK131091:UOX131091 UYG131091:UYT131091 VIC131091:VIP131091 VRY131091:VSL131091 WBU131091:WCH131091 WLQ131091:WMD131091 WVM131091:WVZ131091 E196627:R196627 JA196627:JN196627 SW196627:TJ196627 ACS196627:ADF196627 AMO196627:ANB196627 AWK196627:AWX196627 BGG196627:BGT196627 BQC196627:BQP196627 BZY196627:CAL196627 CJU196627:CKH196627 CTQ196627:CUD196627 DDM196627:DDZ196627 DNI196627:DNV196627 DXE196627:DXR196627 EHA196627:EHN196627 EQW196627:ERJ196627 FAS196627:FBF196627 FKO196627:FLB196627 FUK196627:FUX196627 GEG196627:GET196627 GOC196627:GOP196627 GXY196627:GYL196627 HHU196627:HIH196627 HRQ196627:HSD196627 IBM196627:IBZ196627 ILI196627:ILV196627 IVE196627:IVR196627 JFA196627:JFN196627 JOW196627:JPJ196627 JYS196627:JZF196627 KIO196627:KJB196627 KSK196627:KSX196627 LCG196627:LCT196627 LMC196627:LMP196627 LVY196627:LWL196627 MFU196627:MGH196627 MPQ196627:MQD196627 MZM196627:MZZ196627 NJI196627:NJV196627 NTE196627:NTR196627 ODA196627:ODN196627 OMW196627:ONJ196627 OWS196627:OXF196627 PGO196627:PHB196627 PQK196627:PQX196627 QAG196627:QAT196627 QKC196627:QKP196627 QTY196627:QUL196627 RDU196627:REH196627 RNQ196627:ROD196627 RXM196627:RXZ196627 SHI196627:SHV196627 SRE196627:SRR196627 TBA196627:TBN196627 TKW196627:TLJ196627 TUS196627:TVF196627 UEO196627:UFB196627 UOK196627:UOX196627 UYG196627:UYT196627 VIC196627:VIP196627 VRY196627:VSL196627 WBU196627:WCH196627 WLQ196627:WMD196627 WVM196627:WVZ196627 E262163:R262163 JA262163:JN262163 SW262163:TJ262163 ACS262163:ADF262163 AMO262163:ANB262163 AWK262163:AWX262163 BGG262163:BGT262163 BQC262163:BQP262163 BZY262163:CAL262163 CJU262163:CKH262163 CTQ262163:CUD262163 DDM262163:DDZ262163 DNI262163:DNV262163 DXE262163:DXR262163 EHA262163:EHN262163 EQW262163:ERJ262163 FAS262163:FBF262163 FKO262163:FLB262163 FUK262163:FUX262163 GEG262163:GET262163 GOC262163:GOP262163 GXY262163:GYL262163 HHU262163:HIH262163 HRQ262163:HSD262163 IBM262163:IBZ262163 ILI262163:ILV262163 IVE262163:IVR262163 JFA262163:JFN262163 JOW262163:JPJ262163 JYS262163:JZF262163 KIO262163:KJB262163 KSK262163:KSX262163 LCG262163:LCT262163 LMC262163:LMP262163 LVY262163:LWL262163 MFU262163:MGH262163 MPQ262163:MQD262163 MZM262163:MZZ262163 NJI262163:NJV262163 NTE262163:NTR262163 ODA262163:ODN262163 OMW262163:ONJ262163 OWS262163:OXF262163 PGO262163:PHB262163 PQK262163:PQX262163 QAG262163:QAT262163 QKC262163:QKP262163 QTY262163:QUL262163 RDU262163:REH262163 RNQ262163:ROD262163 RXM262163:RXZ262163 SHI262163:SHV262163 SRE262163:SRR262163 TBA262163:TBN262163 TKW262163:TLJ262163 TUS262163:TVF262163 UEO262163:UFB262163 UOK262163:UOX262163 UYG262163:UYT262163 VIC262163:VIP262163 VRY262163:VSL262163 WBU262163:WCH262163 WLQ262163:WMD262163 WVM262163:WVZ262163 E327699:R327699 JA327699:JN327699 SW327699:TJ327699 ACS327699:ADF327699 AMO327699:ANB327699 AWK327699:AWX327699 BGG327699:BGT327699 BQC327699:BQP327699 BZY327699:CAL327699 CJU327699:CKH327699 CTQ327699:CUD327699 DDM327699:DDZ327699 DNI327699:DNV327699 DXE327699:DXR327699 EHA327699:EHN327699 EQW327699:ERJ327699 FAS327699:FBF327699 FKO327699:FLB327699 FUK327699:FUX327699 GEG327699:GET327699 GOC327699:GOP327699 GXY327699:GYL327699 HHU327699:HIH327699 HRQ327699:HSD327699 IBM327699:IBZ327699 ILI327699:ILV327699 IVE327699:IVR327699 JFA327699:JFN327699 JOW327699:JPJ327699 JYS327699:JZF327699 KIO327699:KJB327699 KSK327699:KSX327699 LCG327699:LCT327699 LMC327699:LMP327699 LVY327699:LWL327699 MFU327699:MGH327699 MPQ327699:MQD327699 MZM327699:MZZ327699 NJI327699:NJV327699 NTE327699:NTR327699 ODA327699:ODN327699 OMW327699:ONJ327699 OWS327699:OXF327699 PGO327699:PHB327699 PQK327699:PQX327699 QAG327699:QAT327699 QKC327699:QKP327699 QTY327699:QUL327699 RDU327699:REH327699 RNQ327699:ROD327699 RXM327699:RXZ327699 SHI327699:SHV327699 SRE327699:SRR327699 TBA327699:TBN327699 TKW327699:TLJ327699 TUS327699:TVF327699 UEO327699:UFB327699 UOK327699:UOX327699 UYG327699:UYT327699 VIC327699:VIP327699 VRY327699:VSL327699 WBU327699:WCH327699 WLQ327699:WMD327699 WVM327699:WVZ327699 E393235:R393235 JA393235:JN393235 SW393235:TJ393235 ACS393235:ADF393235 AMO393235:ANB393235 AWK393235:AWX393235 BGG393235:BGT393235 BQC393235:BQP393235 BZY393235:CAL393235 CJU393235:CKH393235 CTQ393235:CUD393235 DDM393235:DDZ393235 DNI393235:DNV393235 DXE393235:DXR393235 EHA393235:EHN393235 EQW393235:ERJ393235 FAS393235:FBF393235 FKO393235:FLB393235 FUK393235:FUX393235 GEG393235:GET393235 GOC393235:GOP393235 GXY393235:GYL393235 HHU393235:HIH393235 HRQ393235:HSD393235 IBM393235:IBZ393235 ILI393235:ILV393235 IVE393235:IVR393235 JFA393235:JFN393235 JOW393235:JPJ393235 JYS393235:JZF393235 KIO393235:KJB393235 KSK393235:KSX393235 LCG393235:LCT393235 LMC393235:LMP393235 LVY393235:LWL393235 MFU393235:MGH393235 MPQ393235:MQD393235 MZM393235:MZZ393235 NJI393235:NJV393235 NTE393235:NTR393235 ODA393235:ODN393235 OMW393235:ONJ393235 OWS393235:OXF393235 PGO393235:PHB393235 PQK393235:PQX393235 QAG393235:QAT393235 QKC393235:QKP393235 QTY393235:QUL393235 RDU393235:REH393235 RNQ393235:ROD393235 RXM393235:RXZ393235 SHI393235:SHV393235 SRE393235:SRR393235 TBA393235:TBN393235 TKW393235:TLJ393235 TUS393235:TVF393235 UEO393235:UFB393235 UOK393235:UOX393235 UYG393235:UYT393235 VIC393235:VIP393235 VRY393235:VSL393235 WBU393235:WCH393235 WLQ393235:WMD393235 WVM393235:WVZ393235 E458771:R458771 JA458771:JN458771 SW458771:TJ458771 ACS458771:ADF458771 AMO458771:ANB458771 AWK458771:AWX458771 BGG458771:BGT458771 BQC458771:BQP458771 BZY458771:CAL458771 CJU458771:CKH458771 CTQ458771:CUD458771 DDM458771:DDZ458771 DNI458771:DNV458771 DXE458771:DXR458771 EHA458771:EHN458771 EQW458771:ERJ458771 FAS458771:FBF458771 FKO458771:FLB458771 FUK458771:FUX458771 GEG458771:GET458771 GOC458771:GOP458771 GXY458771:GYL458771 HHU458771:HIH458771 HRQ458771:HSD458771 IBM458771:IBZ458771 ILI458771:ILV458771 IVE458771:IVR458771 JFA458771:JFN458771 JOW458771:JPJ458771 JYS458771:JZF458771 KIO458771:KJB458771 KSK458771:KSX458771 LCG458771:LCT458771 LMC458771:LMP458771 LVY458771:LWL458771 MFU458771:MGH458771 MPQ458771:MQD458771 MZM458771:MZZ458771 NJI458771:NJV458771 NTE458771:NTR458771 ODA458771:ODN458771 OMW458771:ONJ458771 OWS458771:OXF458771 PGO458771:PHB458771 PQK458771:PQX458771 QAG458771:QAT458771 QKC458771:QKP458771 QTY458771:QUL458771 RDU458771:REH458771 RNQ458771:ROD458771 RXM458771:RXZ458771 SHI458771:SHV458771 SRE458771:SRR458771 TBA458771:TBN458771 TKW458771:TLJ458771 TUS458771:TVF458771 UEO458771:UFB458771 UOK458771:UOX458771 UYG458771:UYT458771 VIC458771:VIP458771 VRY458771:VSL458771 WBU458771:WCH458771 WLQ458771:WMD458771 WVM458771:WVZ458771 E524307:R524307 JA524307:JN524307 SW524307:TJ524307 ACS524307:ADF524307 AMO524307:ANB524307 AWK524307:AWX524307 BGG524307:BGT524307 BQC524307:BQP524307 BZY524307:CAL524307 CJU524307:CKH524307 CTQ524307:CUD524307 DDM524307:DDZ524307 DNI524307:DNV524307 DXE524307:DXR524307 EHA524307:EHN524307 EQW524307:ERJ524307 FAS524307:FBF524307 FKO524307:FLB524307 FUK524307:FUX524307 GEG524307:GET524307 GOC524307:GOP524307 GXY524307:GYL524307 HHU524307:HIH524307 HRQ524307:HSD524307 IBM524307:IBZ524307 ILI524307:ILV524307 IVE524307:IVR524307 JFA524307:JFN524307 JOW524307:JPJ524307 JYS524307:JZF524307 KIO524307:KJB524307 KSK524307:KSX524307 LCG524307:LCT524307 LMC524307:LMP524307 LVY524307:LWL524307 MFU524307:MGH524307 MPQ524307:MQD524307 MZM524307:MZZ524307 NJI524307:NJV524307 NTE524307:NTR524307 ODA524307:ODN524307 OMW524307:ONJ524307 OWS524307:OXF524307 PGO524307:PHB524307 PQK524307:PQX524307 QAG524307:QAT524307 QKC524307:QKP524307 QTY524307:QUL524307 RDU524307:REH524307 RNQ524307:ROD524307 RXM524307:RXZ524307 SHI524307:SHV524307 SRE524307:SRR524307 TBA524307:TBN524307 TKW524307:TLJ524307 TUS524307:TVF524307 UEO524307:UFB524307 UOK524307:UOX524307 UYG524307:UYT524307 VIC524307:VIP524307 VRY524307:VSL524307 WBU524307:WCH524307 WLQ524307:WMD524307 WVM524307:WVZ524307 E589843:R589843 JA589843:JN589843 SW589843:TJ589843 ACS589843:ADF589843 AMO589843:ANB589843 AWK589843:AWX589843 BGG589843:BGT589843 BQC589843:BQP589843 BZY589843:CAL589843 CJU589843:CKH589843 CTQ589843:CUD589843 DDM589843:DDZ589843 DNI589843:DNV589843 DXE589843:DXR589843 EHA589843:EHN589843 EQW589843:ERJ589843 FAS589843:FBF589843 FKO589843:FLB589843 FUK589843:FUX589843 GEG589843:GET589843 GOC589843:GOP589843 GXY589843:GYL589843 HHU589843:HIH589843 HRQ589843:HSD589843 IBM589843:IBZ589843 ILI589843:ILV589843 IVE589843:IVR589843 JFA589843:JFN589843 JOW589843:JPJ589843 JYS589843:JZF589843 KIO589843:KJB589843 KSK589843:KSX589843 LCG589843:LCT589843 LMC589843:LMP589843 LVY589843:LWL589843 MFU589843:MGH589843 MPQ589843:MQD589843 MZM589843:MZZ589843 NJI589843:NJV589843 NTE589843:NTR589843 ODA589843:ODN589843 OMW589843:ONJ589843 OWS589843:OXF589843 PGO589843:PHB589843 PQK589843:PQX589843 QAG589843:QAT589843 QKC589843:QKP589843 QTY589843:QUL589843 RDU589843:REH589843 RNQ589843:ROD589843 RXM589843:RXZ589843 SHI589843:SHV589843 SRE589843:SRR589843 TBA589843:TBN589843 TKW589843:TLJ589843 TUS589843:TVF589843 UEO589843:UFB589843 UOK589843:UOX589843 UYG589843:UYT589843 VIC589843:VIP589843 VRY589843:VSL589843 WBU589843:WCH589843 WLQ589843:WMD589843 WVM589843:WVZ589843 E655379:R655379 JA655379:JN655379 SW655379:TJ655379 ACS655379:ADF655379 AMO655379:ANB655379 AWK655379:AWX655379 BGG655379:BGT655379 BQC655379:BQP655379 BZY655379:CAL655379 CJU655379:CKH655379 CTQ655379:CUD655379 DDM655379:DDZ655379 DNI655379:DNV655379 DXE655379:DXR655379 EHA655379:EHN655379 EQW655379:ERJ655379 FAS655379:FBF655379 FKO655379:FLB655379 FUK655379:FUX655379 GEG655379:GET655379 GOC655379:GOP655379 GXY655379:GYL655379 HHU655379:HIH655379 HRQ655379:HSD655379 IBM655379:IBZ655379 ILI655379:ILV655379 IVE655379:IVR655379 JFA655379:JFN655379 JOW655379:JPJ655379 JYS655379:JZF655379 KIO655379:KJB655379 KSK655379:KSX655379 LCG655379:LCT655379 LMC655379:LMP655379 LVY655379:LWL655379 MFU655379:MGH655379 MPQ655379:MQD655379 MZM655379:MZZ655379 NJI655379:NJV655379 NTE655379:NTR655379 ODA655379:ODN655379 OMW655379:ONJ655379 OWS655379:OXF655379 PGO655379:PHB655379 PQK655379:PQX655379 QAG655379:QAT655379 QKC655379:QKP655379 QTY655379:QUL655379 RDU655379:REH655379 RNQ655379:ROD655379 RXM655379:RXZ655379 SHI655379:SHV655379 SRE655379:SRR655379 TBA655379:TBN655379 TKW655379:TLJ655379 TUS655379:TVF655379 UEO655379:UFB655379 UOK655379:UOX655379 UYG655379:UYT655379 VIC655379:VIP655379 VRY655379:VSL655379 WBU655379:WCH655379 WLQ655379:WMD655379 WVM655379:WVZ655379 E720915:R720915 JA720915:JN720915 SW720915:TJ720915 ACS720915:ADF720915 AMO720915:ANB720915 AWK720915:AWX720915 BGG720915:BGT720915 BQC720915:BQP720915 BZY720915:CAL720915 CJU720915:CKH720915 CTQ720915:CUD720915 DDM720915:DDZ720915 DNI720915:DNV720915 DXE720915:DXR720915 EHA720915:EHN720915 EQW720915:ERJ720915 FAS720915:FBF720915 FKO720915:FLB720915 FUK720915:FUX720915 GEG720915:GET720915 GOC720915:GOP720915 GXY720915:GYL720915 HHU720915:HIH720915 HRQ720915:HSD720915 IBM720915:IBZ720915 ILI720915:ILV720915 IVE720915:IVR720915 JFA720915:JFN720915 JOW720915:JPJ720915 JYS720915:JZF720915 KIO720915:KJB720915 KSK720915:KSX720915 LCG720915:LCT720915 LMC720915:LMP720915 LVY720915:LWL720915 MFU720915:MGH720915 MPQ720915:MQD720915 MZM720915:MZZ720915 NJI720915:NJV720915 NTE720915:NTR720915 ODA720915:ODN720915 OMW720915:ONJ720915 OWS720915:OXF720915 PGO720915:PHB720915 PQK720915:PQX720915 QAG720915:QAT720915 QKC720915:QKP720915 QTY720915:QUL720915 RDU720915:REH720915 RNQ720915:ROD720915 RXM720915:RXZ720915 SHI720915:SHV720915 SRE720915:SRR720915 TBA720915:TBN720915 TKW720915:TLJ720915 TUS720915:TVF720915 UEO720915:UFB720915 UOK720915:UOX720915 UYG720915:UYT720915 VIC720915:VIP720915 VRY720915:VSL720915 WBU720915:WCH720915 WLQ720915:WMD720915 WVM720915:WVZ720915 E786451:R786451 JA786451:JN786451 SW786451:TJ786451 ACS786451:ADF786451 AMO786451:ANB786451 AWK786451:AWX786451 BGG786451:BGT786451 BQC786451:BQP786451 BZY786451:CAL786451 CJU786451:CKH786451 CTQ786451:CUD786451 DDM786451:DDZ786451 DNI786451:DNV786451 DXE786451:DXR786451 EHA786451:EHN786451 EQW786451:ERJ786451 FAS786451:FBF786451 FKO786451:FLB786451 FUK786451:FUX786451 GEG786451:GET786451 GOC786451:GOP786451 GXY786451:GYL786451 HHU786451:HIH786451 HRQ786451:HSD786451 IBM786451:IBZ786451 ILI786451:ILV786451 IVE786451:IVR786451 JFA786451:JFN786451 JOW786451:JPJ786451 JYS786451:JZF786451 KIO786451:KJB786451 KSK786451:KSX786451 LCG786451:LCT786451 LMC786451:LMP786451 LVY786451:LWL786451 MFU786451:MGH786451 MPQ786451:MQD786451 MZM786451:MZZ786451 NJI786451:NJV786451 NTE786451:NTR786451 ODA786451:ODN786451 OMW786451:ONJ786451 OWS786451:OXF786451 PGO786451:PHB786451 PQK786451:PQX786451 QAG786451:QAT786451 QKC786451:QKP786451 QTY786451:QUL786451 RDU786451:REH786451 RNQ786451:ROD786451 RXM786451:RXZ786451 SHI786451:SHV786451 SRE786451:SRR786451 TBA786451:TBN786451 TKW786451:TLJ786451 TUS786451:TVF786451 UEO786451:UFB786451 UOK786451:UOX786451 UYG786451:UYT786451 VIC786451:VIP786451 VRY786451:VSL786451 WBU786451:WCH786451 WLQ786451:WMD786451 WVM786451:WVZ786451 E851987:R851987 JA851987:JN851987 SW851987:TJ851987 ACS851987:ADF851987 AMO851987:ANB851987 AWK851987:AWX851987 BGG851987:BGT851987 BQC851987:BQP851987 BZY851987:CAL851987 CJU851987:CKH851987 CTQ851987:CUD851987 DDM851987:DDZ851987 DNI851987:DNV851987 DXE851987:DXR851987 EHA851987:EHN851987 EQW851987:ERJ851987 FAS851987:FBF851987 FKO851987:FLB851987 FUK851987:FUX851987 GEG851987:GET851987 GOC851987:GOP851987 GXY851987:GYL851987 HHU851987:HIH851987 HRQ851987:HSD851987 IBM851987:IBZ851987 ILI851987:ILV851987 IVE851987:IVR851987 JFA851987:JFN851987 JOW851987:JPJ851987 JYS851987:JZF851987 KIO851987:KJB851987 KSK851987:KSX851987 LCG851987:LCT851987 LMC851987:LMP851987 LVY851987:LWL851987 MFU851987:MGH851987 MPQ851987:MQD851987 MZM851987:MZZ851987 NJI851987:NJV851987 NTE851987:NTR851987 ODA851987:ODN851987 OMW851987:ONJ851987 OWS851987:OXF851987 PGO851987:PHB851987 PQK851987:PQX851987 QAG851987:QAT851987 QKC851987:QKP851987 QTY851987:QUL851987 RDU851987:REH851987 RNQ851987:ROD851987 RXM851987:RXZ851987 SHI851987:SHV851987 SRE851987:SRR851987 TBA851987:TBN851987 TKW851987:TLJ851987 TUS851987:TVF851987 UEO851987:UFB851987 UOK851987:UOX851987 UYG851987:UYT851987 VIC851987:VIP851987 VRY851987:VSL851987 WBU851987:WCH851987 WLQ851987:WMD851987 WVM851987:WVZ851987 E917523:R917523 JA917523:JN917523 SW917523:TJ917523 ACS917523:ADF917523 AMO917523:ANB917523 AWK917523:AWX917523 BGG917523:BGT917523 BQC917523:BQP917523 BZY917523:CAL917523 CJU917523:CKH917523 CTQ917523:CUD917523 DDM917523:DDZ917523 DNI917523:DNV917523 DXE917523:DXR917523 EHA917523:EHN917523 EQW917523:ERJ917523 FAS917523:FBF917523 FKO917523:FLB917523 FUK917523:FUX917523 GEG917523:GET917523 GOC917523:GOP917523 GXY917523:GYL917523 HHU917523:HIH917523 HRQ917523:HSD917523 IBM917523:IBZ917523 ILI917523:ILV917523 IVE917523:IVR917523 JFA917523:JFN917523 JOW917523:JPJ917523 JYS917523:JZF917523 KIO917523:KJB917523 KSK917523:KSX917523 LCG917523:LCT917523 LMC917523:LMP917523 LVY917523:LWL917523 MFU917523:MGH917523 MPQ917523:MQD917523 MZM917523:MZZ917523 NJI917523:NJV917523 NTE917523:NTR917523 ODA917523:ODN917523 OMW917523:ONJ917523 OWS917523:OXF917523 PGO917523:PHB917523 PQK917523:PQX917523 QAG917523:QAT917523 QKC917523:QKP917523 QTY917523:QUL917523 RDU917523:REH917523 RNQ917523:ROD917523 RXM917523:RXZ917523 SHI917523:SHV917523 SRE917523:SRR917523 TBA917523:TBN917523 TKW917523:TLJ917523 TUS917523:TVF917523 UEO917523:UFB917523 UOK917523:UOX917523 UYG917523:UYT917523 VIC917523:VIP917523 VRY917523:VSL917523 WBU917523:WCH917523 WLQ917523:WMD917523 WVM917523:WVZ917523 E983059:R983059 JA983059:JN983059 SW983059:TJ983059 ACS983059:ADF983059 AMO983059:ANB983059 AWK983059:AWX983059 BGG983059:BGT983059 BQC983059:BQP983059 BZY983059:CAL983059 CJU983059:CKH983059 CTQ983059:CUD983059 DDM983059:DDZ983059 DNI983059:DNV983059 DXE983059:DXR983059 EHA983059:EHN983059 EQW983059:ERJ983059 FAS983059:FBF983059 FKO983059:FLB983059 FUK983059:FUX983059 GEG983059:GET983059 GOC983059:GOP983059 GXY983059:GYL983059 HHU983059:HIH983059 HRQ983059:HSD983059 IBM983059:IBZ983059 ILI983059:ILV983059 IVE983059:IVR983059 JFA983059:JFN983059 JOW983059:JPJ983059 JYS983059:JZF983059 KIO983059:KJB983059 KSK983059:KSX983059 LCG983059:LCT983059 LMC983059:LMP983059 LVY983059:LWL983059 MFU983059:MGH983059 MPQ983059:MQD983059 MZM983059:MZZ983059 NJI983059:NJV983059 NTE983059:NTR983059 ODA983059:ODN983059 OMW983059:ONJ983059 OWS983059:OXF983059 PGO983059:PHB983059 PQK983059:PQX983059 QAG983059:QAT983059 QKC983059:QKP983059 QTY983059:QUL983059 RDU983059:REH983059 RNQ983059:ROD983059 RXM983059:RXZ983059 SHI983059:SHV983059 SRE983059:SRR983059 TBA983059:TBN983059 TKW983059:TLJ983059 TUS983059:TVF983059 UEO983059:UFB983059 UOK983059:UOX983059 UYG983059:UYT983059 VIC983059:VIP983059 VRY983059:VSL983059 WBU983059:WCH983059 WLQ983059:WMD983059 E19:R19">
@@ -10499,136 +10499,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="196" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="224" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="198" t="s">
+      <c r="D2" s="225"/>
+      <c r="E2" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201" t="str">
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="229" t="str">
         <f>C2</f>
         <v>UpdateTime</v>
       </c>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="231"/>
       <c r="T2" s="73"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="206" t="str">
+      <c r="B3" s="211"/>
+      <c r="C3" s="232" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="207"/>
-      <c r="E3" s="208" t="s">
+      <c r="D3" s="233"/>
+      <c r="E3" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="211" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="237" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="239"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="204" t="s">
+      <c r="A4" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="214"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214"/>
-      <c r="N4" s="214"/>
-      <c r="O4" s="214"/>
-      <c r="P4" s="214"/>
-      <c r="Q4" s="214"/>
-      <c r="R4" s="216"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="214"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="219" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="220"/>
-      <c r="E5" s="221" t="s">
+      <c r="D5" s="218"/>
+      <c r="E5" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="220" t="s">
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="221" t="s">
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="220"/>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="223"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="221"/>
       <c r="T5" s="73"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="227">
+      <c r="A6" s="197">
         <f>COUNTIF(E19:HM19,"P")</f>
         <v>2</v>
       </c>
-      <c r="B6" s="228"/>
-      <c r="C6" s="229">
+      <c r="B6" s="198"/>
+      <c r="C6" s="199">
         <f>COUNTIF(E19:HO19,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="231">
+      <c r="D6" s="200"/>
+      <c r="E6" s="201">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="232"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="202"/>
       <c r="I6" s="117">
         <f>COUNTIF(E18:HM18,"N")</f>
         <v>0</v>
@@ -10641,16 +10641,16 @@
         <f>COUNTIF(E18:HM18,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="231">
+      <c r="L6" s="201">
         <f>COUNTA(E8:P8)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="230"/>
-      <c r="N6" s="230"/>
-      <c r="O6" s="230"/>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="233"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="203"/>
       <c r="S6" s="118"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -10886,11 +10886,11 @@
       <c r="A18" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="234" t="s">
+      <c r="B18" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="235"/>
-      <c r="D18" s="236"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="206"/>
       <c r="E18" s="157" t="s">
         <v>36</v>
       </c>
@@ -10912,11 +10912,11 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="136"/>
-      <c r="B19" s="237" t="s">
+      <c r="B19" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="238"/>
-      <c r="D19" s="239"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="134" t="s">
         <v>38</v>
       </c>
@@ -10938,11 +10938,11 @@
     </row>
     <row r="20" spans="1:18" ht="54">
       <c r="A20" s="136"/>
-      <c r="B20" s="224" t="s">
+      <c r="B20" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="225"/>
-      <c r="D20" s="226"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="196"/>
       <c r="E20" s="133">
         <v>42594</v>
       </c>
@@ -11047,11 +11047,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:R3"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="A4:B4"/>
@@ -11061,14 +11064,11 @@
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:R5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:R18 JA18:JN18 SW18:TJ18 ACS18:ADF18 AMO18:ANB18 AWK18:AWX18 BGG18:BGT18 BQC18:BQP18 BZY18:CAL18 CJU18:CKH18 CTQ18:CUD18 DDM18:DDZ18 DNI18:DNV18 DXE18:DXR18 EHA18:EHN18 EQW18:ERJ18 FAS18:FBF18 FKO18:FLB18 FUK18:FUX18 GEG18:GET18 GOC18:GOP18 GXY18:GYL18 HHU18:HIH18 HRQ18:HSD18 IBM18:IBZ18 ILI18:ILV18 IVE18:IVR18 JFA18:JFN18 JOW18:JPJ18 JYS18:JZF18 KIO18:KJB18 KSK18:KSX18 LCG18:LCT18 LMC18:LMP18 LVY18:LWL18 MFU18:MGH18 MPQ18:MQD18 MZM18:MZZ18 NJI18:NJV18 NTE18:NTR18 ODA18:ODN18 OMW18:ONJ18 OWS18:OXF18 PGO18:PHB18 PQK18:PQX18 QAG18:QAT18 QKC18:QKP18 QTY18:QUL18 RDU18:REH18 RNQ18:ROD18 RXM18:RXZ18 SHI18:SHV18 SRE18:SRR18 TBA18:TBN18 TKW18:TLJ18 TUS18:TVF18 UEO18:UFB18 UOK18:UOX18 UYG18:UYT18 VIC18:VIP18 VRY18:VSL18 WBU18:WCH18 WLQ18:WMD18 WVM18:WVZ18 E65554:R65554 JA65554:JN65554 SW65554:TJ65554 ACS65554:ADF65554 AMO65554:ANB65554 AWK65554:AWX65554 BGG65554:BGT65554 BQC65554:BQP65554 BZY65554:CAL65554 CJU65554:CKH65554 CTQ65554:CUD65554 DDM65554:DDZ65554 DNI65554:DNV65554 DXE65554:DXR65554 EHA65554:EHN65554 EQW65554:ERJ65554 FAS65554:FBF65554 FKO65554:FLB65554 FUK65554:FUX65554 GEG65554:GET65554 GOC65554:GOP65554 GXY65554:GYL65554 HHU65554:HIH65554 HRQ65554:HSD65554 IBM65554:IBZ65554 ILI65554:ILV65554 IVE65554:IVR65554 JFA65554:JFN65554 JOW65554:JPJ65554 JYS65554:JZF65554 KIO65554:KJB65554 KSK65554:KSX65554 LCG65554:LCT65554 LMC65554:LMP65554 LVY65554:LWL65554 MFU65554:MGH65554 MPQ65554:MQD65554 MZM65554:MZZ65554 NJI65554:NJV65554 NTE65554:NTR65554 ODA65554:ODN65554 OMW65554:ONJ65554 OWS65554:OXF65554 PGO65554:PHB65554 PQK65554:PQX65554 QAG65554:QAT65554 QKC65554:QKP65554 QTY65554:QUL65554 RDU65554:REH65554 RNQ65554:ROD65554 RXM65554:RXZ65554 SHI65554:SHV65554 SRE65554:SRR65554 TBA65554:TBN65554 TKW65554:TLJ65554 TUS65554:TVF65554 UEO65554:UFB65554 UOK65554:UOX65554 UYG65554:UYT65554 VIC65554:VIP65554 VRY65554:VSL65554 WBU65554:WCH65554 WLQ65554:WMD65554 WVM65554:WVZ65554 E131090:R131090 JA131090:JN131090 SW131090:TJ131090 ACS131090:ADF131090 AMO131090:ANB131090 AWK131090:AWX131090 BGG131090:BGT131090 BQC131090:BQP131090 BZY131090:CAL131090 CJU131090:CKH131090 CTQ131090:CUD131090 DDM131090:DDZ131090 DNI131090:DNV131090 DXE131090:DXR131090 EHA131090:EHN131090 EQW131090:ERJ131090 FAS131090:FBF131090 FKO131090:FLB131090 FUK131090:FUX131090 GEG131090:GET131090 GOC131090:GOP131090 GXY131090:GYL131090 HHU131090:HIH131090 HRQ131090:HSD131090 IBM131090:IBZ131090 ILI131090:ILV131090 IVE131090:IVR131090 JFA131090:JFN131090 JOW131090:JPJ131090 JYS131090:JZF131090 KIO131090:KJB131090 KSK131090:KSX131090 LCG131090:LCT131090 LMC131090:LMP131090 LVY131090:LWL131090 MFU131090:MGH131090 MPQ131090:MQD131090 MZM131090:MZZ131090 NJI131090:NJV131090 NTE131090:NTR131090 ODA131090:ODN131090 OMW131090:ONJ131090 OWS131090:OXF131090 PGO131090:PHB131090 PQK131090:PQX131090 QAG131090:QAT131090 QKC131090:QKP131090 QTY131090:QUL131090 RDU131090:REH131090 RNQ131090:ROD131090 RXM131090:RXZ131090 SHI131090:SHV131090 SRE131090:SRR131090 TBA131090:TBN131090 TKW131090:TLJ131090 TUS131090:TVF131090 UEO131090:UFB131090 UOK131090:UOX131090 UYG131090:UYT131090 VIC131090:VIP131090 VRY131090:VSL131090 WBU131090:WCH131090 WLQ131090:WMD131090 WVM131090:WVZ131090 E196626:R196626 JA196626:JN196626 SW196626:TJ196626 ACS196626:ADF196626 AMO196626:ANB196626 AWK196626:AWX196626 BGG196626:BGT196626 BQC196626:BQP196626 BZY196626:CAL196626 CJU196626:CKH196626 CTQ196626:CUD196626 DDM196626:DDZ196626 DNI196626:DNV196626 DXE196626:DXR196626 EHA196626:EHN196626 EQW196626:ERJ196626 FAS196626:FBF196626 FKO196626:FLB196626 FUK196626:FUX196626 GEG196626:GET196626 GOC196626:GOP196626 GXY196626:GYL196626 HHU196626:HIH196626 HRQ196626:HSD196626 IBM196626:IBZ196626 ILI196626:ILV196626 IVE196626:IVR196626 JFA196626:JFN196626 JOW196626:JPJ196626 JYS196626:JZF196626 KIO196626:KJB196626 KSK196626:KSX196626 LCG196626:LCT196626 LMC196626:LMP196626 LVY196626:LWL196626 MFU196626:MGH196626 MPQ196626:MQD196626 MZM196626:MZZ196626 NJI196626:NJV196626 NTE196626:NTR196626 ODA196626:ODN196626 OMW196626:ONJ196626 OWS196626:OXF196626 PGO196626:PHB196626 PQK196626:PQX196626 QAG196626:QAT196626 QKC196626:QKP196626 QTY196626:QUL196626 RDU196626:REH196626 RNQ196626:ROD196626 RXM196626:RXZ196626 SHI196626:SHV196626 SRE196626:SRR196626 TBA196626:TBN196626 TKW196626:TLJ196626 TUS196626:TVF196626 UEO196626:UFB196626 UOK196626:UOX196626 UYG196626:UYT196626 VIC196626:VIP196626 VRY196626:VSL196626 WBU196626:WCH196626 WLQ196626:WMD196626 WVM196626:WVZ196626 E262162:R262162 JA262162:JN262162 SW262162:TJ262162 ACS262162:ADF262162 AMO262162:ANB262162 AWK262162:AWX262162 BGG262162:BGT262162 BQC262162:BQP262162 BZY262162:CAL262162 CJU262162:CKH262162 CTQ262162:CUD262162 DDM262162:DDZ262162 DNI262162:DNV262162 DXE262162:DXR262162 EHA262162:EHN262162 EQW262162:ERJ262162 FAS262162:FBF262162 FKO262162:FLB262162 FUK262162:FUX262162 GEG262162:GET262162 GOC262162:GOP262162 GXY262162:GYL262162 HHU262162:HIH262162 HRQ262162:HSD262162 IBM262162:IBZ262162 ILI262162:ILV262162 IVE262162:IVR262162 JFA262162:JFN262162 JOW262162:JPJ262162 JYS262162:JZF262162 KIO262162:KJB262162 KSK262162:KSX262162 LCG262162:LCT262162 LMC262162:LMP262162 LVY262162:LWL262162 MFU262162:MGH262162 MPQ262162:MQD262162 MZM262162:MZZ262162 NJI262162:NJV262162 NTE262162:NTR262162 ODA262162:ODN262162 OMW262162:ONJ262162 OWS262162:OXF262162 PGO262162:PHB262162 PQK262162:PQX262162 QAG262162:QAT262162 QKC262162:QKP262162 QTY262162:QUL262162 RDU262162:REH262162 RNQ262162:ROD262162 RXM262162:RXZ262162 SHI262162:SHV262162 SRE262162:SRR262162 TBA262162:TBN262162 TKW262162:TLJ262162 TUS262162:TVF262162 UEO262162:UFB262162 UOK262162:UOX262162 UYG262162:UYT262162 VIC262162:VIP262162 VRY262162:VSL262162 WBU262162:WCH262162 WLQ262162:WMD262162 WVM262162:WVZ262162 E327698:R327698 JA327698:JN327698 SW327698:TJ327698 ACS327698:ADF327698 AMO327698:ANB327698 AWK327698:AWX327698 BGG327698:BGT327698 BQC327698:BQP327698 BZY327698:CAL327698 CJU327698:CKH327698 CTQ327698:CUD327698 DDM327698:DDZ327698 DNI327698:DNV327698 DXE327698:DXR327698 EHA327698:EHN327698 EQW327698:ERJ327698 FAS327698:FBF327698 FKO327698:FLB327698 FUK327698:FUX327698 GEG327698:GET327698 GOC327698:GOP327698 GXY327698:GYL327698 HHU327698:HIH327698 HRQ327698:HSD327698 IBM327698:IBZ327698 ILI327698:ILV327698 IVE327698:IVR327698 JFA327698:JFN327698 JOW327698:JPJ327698 JYS327698:JZF327698 KIO327698:KJB327698 KSK327698:KSX327698 LCG327698:LCT327698 LMC327698:LMP327698 LVY327698:LWL327698 MFU327698:MGH327698 MPQ327698:MQD327698 MZM327698:MZZ327698 NJI327698:NJV327698 NTE327698:NTR327698 ODA327698:ODN327698 OMW327698:ONJ327698 OWS327698:OXF327698 PGO327698:PHB327698 PQK327698:PQX327698 QAG327698:QAT327698 QKC327698:QKP327698 QTY327698:QUL327698 RDU327698:REH327698 RNQ327698:ROD327698 RXM327698:RXZ327698 SHI327698:SHV327698 SRE327698:SRR327698 TBA327698:TBN327698 TKW327698:TLJ327698 TUS327698:TVF327698 UEO327698:UFB327698 UOK327698:UOX327698 UYG327698:UYT327698 VIC327698:VIP327698 VRY327698:VSL327698 WBU327698:WCH327698 WLQ327698:WMD327698 WVM327698:WVZ327698 E393234:R393234 JA393234:JN393234 SW393234:TJ393234 ACS393234:ADF393234 AMO393234:ANB393234 AWK393234:AWX393234 BGG393234:BGT393234 BQC393234:BQP393234 BZY393234:CAL393234 CJU393234:CKH393234 CTQ393234:CUD393234 DDM393234:DDZ393234 DNI393234:DNV393234 DXE393234:DXR393234 EHA393234:EHN393234 EQW393234:ERJ393234 FAS393234:FBF393234 FKO393234:FLB393234 FUK393234:FUX393234 GEG393234:GET393234 GOC393234:GOP393234 GXY393234:GYL393234 HHU393234:HIH393234 HRQ393234:HSD393234 IBM393234:IBZ393234 ILI393234:ILV393234 IVE393234:IVR393234 JFA393234:JFN393234 JOW393234:JPJ393234 JYS393234:JZF393234 KIO393234:KJB393234 KSK393234:KSX393234 LCG393234:LCT393234 LMC393234:LMP393234 LVY393234:LWL393234 MFU393234:MGH393234 MPQ393234:MQD393234 MZM393234:MZZ393234 NJI393234:NJV393234 NTE393234:NTR393234 ODA393234:ODN393234 OMW393234:ONJ393234 OWS393234:OXF393234 PGO393234:PHB393234 PQK393234:PQX393234 QAG393234:QAT393234 QKC393234:QKP393234 QTY393234:QUL393234 RDU393234:REH393234 RNQ393234:ROD393234 RXM393234:RXZ393234 SHI393234:SHV393234 SRE393234:SRR393234 TBA393234:TBN393234 TKW393234:TLJ393234 TUS393234:TVF393234 UEO393234:UFB393234 UOK393234:UOX393234 UYG393234:UYT393234 VIC393234:VIP393234 VRY393234:VSL393234 WBU393234:WCH393234 WLQ393234:WMD393234 WVM393234:WVZ393234 E458770:R458770 JA458770:JN458770 SW458770:TJ458770 ACS458770:ADF458770 AMO458770:ANB458770 AWK458770:AWX458770 BGG458770:BGT458770 BQC458770:BQP458770 BZY458770:CAL458770 CJU458770:CKH458770 CTQ458770:CUD458770 DDM458770:DDZ458770 DNI458770:DNV458770 DXE458770:DXR458770 EHA458770:EHN458770 EQW458770:ERJ458770 FAS458770:FBF458770 FKO458770:FLB458770 FUK458770:FUX458770 GEG458770:GET458770 GOC458770:GOP458770 GXY458770:GYL458770 HHU458770:HIH458770 HRQ458770:HSD458770 IBM458770:IBZ458770 ILI458770:ILV458770 IVE458770:IVR458770 JFA458770:JFN458770 JOW458770:JPJ458770 JYS458770:JZF458770 KIO458770:KJB458770 KSK458770:KSX458770 LCG458770:LCT458770 LMC458770:LMP458770 LVY458770:LWL458770 MFU458770:MGH458770 MPQ458770:MQD458770 MZM458770:MZZ458770 NJI458770:NJV458770 NTE458770:NTR458770 ODA458770:ODN458770 OMW458770:ONJ458770 OWS458770:OXF458770 PGO458770:PHB458770 PQK458770:PQX458770 QAG458770:QAT458770 QKC458770:QKP458770 QTY458770:QUL458770 RDU458770:REH458770 RNQ458770:ROD458770 RXM458770:RXZ458770 SHI458770:SHV458770 SRE458770:SRR458770 TBA458770:TBN458770 TKW458770:TLJ458770 TUS458770:TVF458770 UEO458770:UFB458770 UOK458770:UOX458770 UYG458770:UYT458770 VIC458770:VIP458770 VRY458770:VSL458770 WBU458770:WCH458770 WLQ458770:WMD458770 WVM458770:WVZ458770 E524306:R524306 JA524306:JN524306 SW524306:TJ524306 ACS524306:ADF524306 AMO524306:ANB524306 AWK524306:AWX524306 BGG524306:BGT524306 BQC524306:BQP524306 BZY524306:CAL524306 CJU524306:CKH524306 CTQ524306:CUD524306 DDM524306:DDZ524306 DNI524306:DNV524306 DXE524306:DXR524306 EHA524306:EHN524306 EQW524306:ERJ524306 FAS524306:FBF524306 FKO524306:FLB524306 FUK524306:FUX524306 GEG524306:GET524306 GOC524306:GOP524306 GXY524306:GYL524306 HHU524306:HIH524306 HRQ524306:HSD524306 IBM524306:IBZ524306 ILI524306:ILV524306 IVE524306:IVR524306 JFA524306:JFN524306 JOW524306:JPJ524306 JYS524306:JZF524306 KIO524306:KJB524306 KSK524306:KSX524306 LCG524306:LCT524306 LMC524306:LMP524306 LVY524306:LWL524306 MFU524306:MGH524306 MPQ524306:MQD524306 MZM524306:MZZ524306 NJI524306:NJV524306 NTE524306:NTR524306 ODA524306:ODN524306 OMW524306:ONJ524306 OWS524306:OXF524306 PGO524306:PHB524306 PQK524306:PQX524306 QAG524306:QAT524306 QKC524306:QKP524306 QTY524306:QUL524306 RDU524306:REH524306 RNQ524306:ROD524306 RXM524306:RXZ524306 SHI524306:SHV524306 SRE524306:SRR524306 TBA524306:TBN524306 TKW524306:TLJ524306 TUS524306:TVF524306 UEO524306:UFB524306 UOK524306:UOX524306 UYG524306:UYT524306 VIC524306:VIP524306 VRY524306:VSL524306 WBU524306:WCH524306 WLQ524306:WMD524306 WVM524306:WVZ524306 E589842:R589842 JA589842:JN589842 SW589842:TJ589842 ACS589842:ADF589842 AMO589842:ANB589842 AWK589842:AWX589842 BGG589842:BGT589842 BQC589842:BQP589842 BZY589842:CAL589842 CJU589842:CKH589842 CTQ589842:CUD589842 DDM589842:DDZ589842 DNI589842:DNV589842 DXE589842:DXR589842 EHA589842:EHN589842 EQW589842:ERJ589842 FAS589842:FBF589842 FKO589842:FLB589842 FUK589842:FUX589842 GEG589842:GET589842 GOC589842:GOP589842 GXY589842:GYL589842 HHU589842:HIH589842 HRQ589842:HSD589842 IBM589842:IBZ589842 ILI589842:ILV589842 IVE589842:IVR589842 JFA589842:JFN589842 JOW589842:JPJ589842 JYS589842:JZF589842 KIO589842:KJB589842 KSK589842:KSX589842 LCG589842:LCT589842 LMC589842:LMP589842 LVY589842:LWL589842 MFU589842:MGH589842 MPQ589842:MQD589842 MZM589842:MZZ589842 NJI589842:NJV589842 NTE589842:NTR589842 ODA589842:ODN589842 OMW589842:ONJ589842 OWS589842:OXF589842 PGO589842:PHB589842 PQK589842:PQX589842 QAG589842:QAT589842 QKC589842:QKP589842 QTY589842:QUL589842 RDU589842:REH589842 RNQ589842:ROD589842 RXM589842:RXZ589842 SHI589842:SHV589842 SRE589842:SRR589842 TBA589842:TBN589842 TKW589842:TLJ589842 TUS589842:TVF589842 UEO589842:UFB589842 UOK589842:UOX589842 UYG589842:UYT589842 VIC589842:VIP589842 VRY589842:VSL589842 WBU589842:WCH589842 WLQ589842:WMD589842 WVM589842:WVZ589842 E655378:R655378 JA655378:JN655378 SW655378:TJ655378 ACS655378:ADF655378 AMO655378:ANB655378 AWK655378:AWX655378 BGG655378:BGT655378 BQC655378:BQP655378 BZY655378:CAL655378 CJU655378:CKH655378 CTQ655378:CUD655378 DDM655378:DDZ655378 DNI655378:DNV655378 DXE655378:DXR655378 EHA655378:EHN655378 EQW655378:ERJ655378 FAS655378:FBF655378 FKO655378:FLB655378 FUK655378:FUX655378 GEG655378:GET655378 GOC655378:GOP655378 GXY655378:GYL655378 HHU655378:HIH655378 HRQ655378:HSD655378 IBM655378:IBZ655378 ILI655378:ILV655378 IVE655378:IVR655378 JFA655378:JFN655378 JOW655378:JPJ655378 JYS655378:JZF655378 KIO655378:KJB655378 KSK655378:KSX655378 LCG655378:LCT655378 LMC655378:LMP655378 LVY655378:LWL655378 MFU655378:MGH655378 MPQ655378:MQD655378 MZM655378:MZZ655378 NJI655378:NJV655378 NTE655378:NTR655378 ODA655378:ODN655378 OMW655378:ONJ655378 OWS655378:OXF655378 PGO655378:PHB655378 PQK655378:PQX655378 QAG655378:QAT655378 QKC655378:QKP655378 QTY655378:QUL655378 RDU655378:REH655378 RNQ655378:ROD655378 RXM655378:RXZ655378 SHI655378:SHV655378 SRE655378:SRR655378 TBA655378:TBN655378 TKW655378:TLJ655378 TUS655378:TVF655378 UEO655378:UFB655378 UOK655378:UOX655378 UYG655378:UYT655378 VIC655378:VIP655378 VRY655378:VSL655378 WBU655378:WCH655378 WLQ655378:WMD655378 WVM655378:WVZ655378 E720914:R720914 JA720914:JN720914 SW720914:TJ720914 ACS720914:ADF720914 AMO720914:ANB720914 AWK720914:AWX720914 BGG720914:BGT720914 BQC720914:BQP720914 BZY720914:CAL720914 CJU720914:CKH720914 CTQ720914:CUD720914 DDM720914:DDZ720914 DNI720914:DNV720914 DXE720914:DXR720914 EHA720914:EHN720914 EQW720914:ERJ720914 FAS720914:FBF720914 FKO720914:FLB720914 FUK720914:FUX720914 GEG720914:GET720914 GOC720914:GOP720914 GXY720914:GYL720914 HHU720914:HIH720914 HRQ720914:HSD720914 IBM720914:IBZ720914 ILI720914:ILV720914 IVE720914:IVR720914 JFA720914:JFN720914 JOW720914:JPJ720914 JYS720914:JZF720914 KIO720914:KJB720914 KSK720914:KSX720914 LCG720914:LCT720914 LMC720914:LMP720914 LVY720914:LWL720914 MFU720914:MGH720914 MPQ720914:MQD720914 MZM720914:MZZ720914 NJI720914:NJV720914 NTE720914:NTR720914 ODA720914:ODN720914 OMW720914:ONJ720914 OWS720914:OXF720914 PGO720914:PHB720914 PQK720914:PQX720914 QAG720914:QAT720914 QKC720914:QKP720914 QTY720914:QUL720914 RDU720914:REH720914 RNQ720914:ROD720914 RXM720914:RXZ720914 SHI720914:SHV720914 SRE720914:SRR720914 TBA720914:TBN720914 TKW720914:TLJ720914 TUS720914:TVF720914 UEO720914:UFB720914 UOK720914:UOX720914 UYG720914:UYT720914 VIC720914:VIP720914 VRY720914:VSL720914 WBU720914:WCH720914 WLQ720914:WMD720914 WVM720914:WVZ720914 E786450:R786450 JA786450:JN786450 SW786450:TJ786450 ACS786450:ADF786450 AMO786450:ANB786450 AWK786450:AWX786450 BGG786450:BGT786450 BQC786450:BQP786450 BZY786450:CAL786450 CJU786450:CKH786450 CTQ786450:CUD786450 DDM786450:DDZ786450 DNI786450:DNV786450 DXE786450:DXR786450 EHA786450:EHN786450 EQW786450:ERJ786450 FAS786450:FBF786450 FKO786450:FLB786450 FUK786450:FUX786450 GEG786450:GET786450 GOC786450:GOP786450 GXY786450:GYL786450 HHU786450:HIH786450 HRQ786450:HSD786450 IBM786450:IBZ786450 ILI786450:ILV786450 IVE786450:IVR786450 JFA786450:JFN786450 JOW786450:JPJ786450 JYS786450:JZF786450 KIO786450:KJB786450 KSK786450:KSX786450 LCG786450:LCT786450 LMC786450:LMP786450 LVY786450:LWL786450 MFU786450:MGH786450 MPQ786450:MQD786450 MZM786450:MZZ786450 NJI786450:NJV786450 NTE786450:NTR786450 ODA786450:ODN786450 OMW786450:ONJ786450 OWS786450:OXF786450 PGO786450:PHB786450 PQK786450:PQX786450 QAG786450:QAT786450 QKC786450:QKP786450 QTY786450:QUL786450 RDU786450:REH786450 RNQ786450:ROD786450 RXM786450:RXZ786450 SHI786450:SHV786450 SRE786450:SRR786450 TBA786450:TBN786450 TKW786450:TLJ786450 TUS786450:TVF786450 UEO786450:UFB786450 UOK786450:UOX786450 UYG786450:UYT786450 VIC786450:VIP786450 VRY786450:VSL786450 WBU786450:WCH786450 WLQ786450:WMD786450 WVM786450:WVZ786450 E851986:R851986 JA851986:JN851986 SW851986:TJ851986 ACS851986:ADF851986 AMO851986:ANB851986 AWK851986:AWX851986 BGG851986:BGT851986 BQC851986:BQP851986 BZY851986:CAL851986 CJU851986:CKH851986 CTQ851986:CUD851986 DDM851986:DDZ851986 DNI851986:DNV851986 DXE851986:DXR851986 EHA851986:EHN851986 EQW851986:ERJ851986 FAS851986:FBF851986 FKO851986:FLB851986 FUK851986:FUX851986 GEG851986:GET851986 GOC851986:GOP851986 GXY851986:GYL851986 HHU851986:HIH851986 HRQ851986:HSD851986 IBM851986:IBZ851986 ILI851986:ILV851986 IVE851986:IVR851986 JFA851986:JFN851986 JOW851986:JPJ851986 JYS851986:JZF851986 KIO851986:KJB851986 KSK851986:KSX851986 LCG851986:LCT851986 LMC851986:LMP851986 LVY851986:LWL851986 MFU851986:MGH851986 MPQ851986:MQD851986 MZM851986:MZZ851986 NJI851986:NJV851986 NTE851986:NTR851986 ODA851986:ODN851986 OMW851986:ONJ851986 OWS851986:OXF851986 PGO851986:PHB851986 PQK851986:PQX851986 QAG851986:QAT851986 QKC851986:QKP851986 QTY851986:QUL851986 RDU851986:REH851986 RNQ851986:ROD851986 RXM851986:RXZ851986 SHI851986:SHV851986 SRE851986:SRR851986 TBA851986:TBN851986 TKW851986:TLJ851986 TUS851986:TVF851986 UEO851986:UFB851986 UOK851986:UOX851986 UYG851986:UYT851986 VIC851986:VIP851986 VRY851986:VSL851986 WBU851986:WCH851986 WLQ851986:WMD851986 WVM851986:WVZ851986 E917522:R917522 JA917522:JN917522 SW917522:TJ917522 ACS917522:ADF917522 AMO917522:ANB917522 AWK917522:AWX917522 BGG917522:BGT917522 BQC917522:BQP917522 BZY917522:CAL917522 CJU917522:CKH917522 CTQ917522:CUD917522 DDM917522:DDZ917522 DNI917522:DNV917522 DXE917522:DXR917522 EHA917522:EHN917522 EQW917522:ERJ917522 FAS917522:FBF917522 FKO917522:FLB917522 FUK917522:FUX917522 GEG917522:GET917522 GOC917522:GOP917522 GXY917522:GYL917522 HHU917522:HIH917522 HRQ917522:HSD917522 IBM917522:IBZ917522 ILI917522:ILV917522 IVE917522:IVR917522 JFA917522:JFN917522 JOW917522:JPJ917522 JYS917522:JZF917522 KIO917522:KJB917522 KSK917522:KSX917522 LCG917522:LCT917522 LMC917522:LMP917522 LVY917522:LWL917522 MFU917522:MGH917522 MPQ917522:MQD917522 MZM917522:MZZ917522 NJI917522:NJV917522 NTE917522:NTR917522 ODA917522:ODN917522 OMW917522:ONJ917522 OWS917522:OXF917522 PGO917522:PHB917522 PQK917522:PQX917522 QAG917522:QAT917522 QKC917522:QKP917522 QTY917522:QUL917522 RDU917522:REH917522 RNQ917522:ROD917522 RXM917522:RXZ917522 SHI917522:SHV917522 SRE917522:SRR917522 TBA917522:TBN917522 TKW917522:TLJ917522 TUS917522:TVF917522 UEO917522:UFB917522 UOK917522:UOX917522 UYG917522:UYT917522 VIC917522:VIP917522 VRY917522:VSL917522 WBU917522:WCH917522 WLQ917522:WMD917522 WVM917522:WVZ917522 E983058:R983058 JA983058:JN983058 SW983058:TJ983058 ACS983058:ADF983058 AMO983058:ANB983058 AWK983058:AWX983058 BGG983058:BGT983058 BQC983058:BQP983058 BZY983058:CAL983058 CJU983058:CKH983058 CTQ983058:CUD983058 DDM983058:DDZ983058 DNI983058:DNV983058 DXE983058:DXR983058 EHA983058:EHN983058 EQW983058:ERJ983058 FAS983058:FBF983058 FKO983058:FLB983058 FUK983058:FUX983058 GEG983058:GET983058 GOC983058:GOP983058 GXY983058:GYL983058 HHU983058:HIH983058 HRQ983058:HSD983058 IBM983058:IBZ983058 ILI983058:ILV983058 IVE983058:IVR983058 JFA983058:JFN983058 JOW983058:JPJ983058 JYS983058:JZF983058 KIO983058:KJB983058 KSK983058:KSX983058 LCG983058:LCT983058 LMC983058:LMP983058 LVY983058:LWL983058 MFU983058:MGH983058 MPQ983058:MQD983058 MZM983058:MZZ983058 NJI983058:NJV983058 NTE983058:NTR983058 ODA983058:ODN983058 OMW983058:ONJ983058 OWS983058:OXF983058 PGO983058:PHB983058 PQK983058:PQX983058 QAG983058:QAT983058 QKC983058:QKP983058 QTY983058:QUL983058 RDU983058:REH983058 RNQ983058:ROD983058 RXM983058:RXZ983058 SHI983058:SHV983058 SRE983058:SRR983058 TBA983058:TBN983058 TKW983058:TLJ983058 TUS983058:TVF983058 UEO983058:UFB983058 UOK983058:UOX983058 UYG983058:UYT983058 VIC983058:VIP983058 VRY983058:VSL983058 WBU983058:WCH983058 WLQ983058:WMD983058 WVM983058:WVZ983058">
@@ -11099,7 +11099,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -11623,136 +11623,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="196" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="198" t="s">
+      <c r="D2" s="225"/>
+      <c r="E2" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201" t="str">
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="229" t="str">
         <f>C2</f>
         <v>GetAllMessageByConservationId</v>
       </c>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="231"/>
       <c r="T2" s="73"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="206" t="str">
+      <c r="B3" s="211"/>
+      <c r="C3" s="232" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="207"/>
-      <c r="E3" s="208" t="s">
+      <c r="D3" s="233"/>
+      <c r="E3" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="211" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="237" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="239"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="204" t="s">
+      <c r="A4" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="214"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214"/>
-      <c r="N4" s="214"/>
-      <c r="O4" s="214"/>
-      <c r="P4" s="214"/>
-      <c r="Q4" s="214"/>
-      <c r="R4" s="216"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="214"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="219" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="220"/>
-      <c r="E5" s="221" t="s">
+      <c r="D5" s="218"/>
+      <c r="E5" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="220" t="s">
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="221" t="s">
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="220"/>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="223"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="221"/>
       <c r="T5" s="73"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="227">
+      <c r="A6" s="197">
         <f>COUNTIF(E23:HM23,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="228"/>
-      <c r="C6" s="229">
+      <c r="B6" s="198"/>
+      <c r="C6" s="199">
         <f>COUNTIF(E23:HO23,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="231">
+      <c r="D6" s="200"/>
+      <c r="E6" s="201">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="232"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="202"/>
       <c r="I6" s="117">
         <f>COUNTIF(E22:HM22,"N")</f>
         <v>0</v>
@@ -11765,16 +11765,16 @@
         <f>COUNTIF(E22:HM22,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="231">
+      <c r="L6" s="201">
         <f>COUNTA(E8:P8)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="230"/>
-      <c r="N6" s="230"/>
-      <c r="O6" s="230"/>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="233"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="203"/>
       <c r="S6" s="118"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -11810,7 +11810,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="139" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C9" s="140"/>
       <c r="D9" s="141"/>
@@ -11838,7 +11838,7 @@
     <row r="10" spans="1:20" ht="13.5" customHeight="1">
       <c r="A10" s="135"/>
       <c r="B10" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="140"/>
       <c r="D10" s="141"/>
@@ -11866,7 +11866,7 @@
     <row r="11" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A11" s="135"/>
       <c r="B11" s="139" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C11" s="140"/>
       <c r="D11" s="141"/>
@@ -12034,7 +12034,7 @@
     <row r="18" spans="1:18" ht="13.5" customHeight="1">
       <c r="A18" s="136"/>
       <c r="B18" s="130" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C18" s="131"/>
       <c r="D18" s="132"/>
@@ -12060,7 +12060,7 @@
     <row r="19" spans="1:18" ht="13.5" customHeight="1">
       <c r="A19" s="136"/>
       <c r="B19" s="130" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C19" s="131"/>
       <c r="D19" s="132"/>
@@ -12153,11 +12153,11 @@
     </row>
     <row r="23" spans="1:18" ht="13.5" customHeight="1">
       <c r="A23" s="136"/>
-      <c r="B23" s="237" t="s">
+      <c r="B23" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="238"/>
-      <c r="D23" s="239"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="134" t="s">
         <v>38</v>
       </c>
@@ -12181,11 +12181,11 @@
     </row>
     <row r="24" spans="1:18" ht="64.5" customHeight="1">
       <c r="A24" s="136"/>
-      <c r="B24" s="224" t="s">
+      <c r="B24" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="225"/>
-      <c r="D24" s="226"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="196"/>
       <c r="E24" s="133">
         <v>42594</v>
       </c>
@@ -12320,6 +12320,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -12328,20 +12342,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM983063:WVZ983063 JA23:JN23 SW23:TJ23 ACS23:ADF23 AMO23:ANB23 AWK23:AWX23 BGG23:BGT23 BQC23:BQP23 BZY23:CAL23 CJU23:CKH23 CTQ23:CUD23 DDM23:DDZ23 DNI23:DNV23 DXE23:DXR23 EHA23:EHN23 EQW23:ERJ23 FAS23:FBF23 FKO23:FLB23 FUK23:FUX23 GEG23:GET23 GOC23:GOP23 GXY23:GYL23 HHU23:HIH23 HRQ23:HSD23 IBM23:IBZ23 ILI23:ILV23 IVE23:IVR23 JFA23:JFN23 JOW23:JPJ23 JYS23:JZF23 KIO23:KJB23 KSK23:KSX23 LCG23:LCT23 LMC23:LMP23 LVY23:LWL23 MFU23:MGH23 MPQ23:MQD23 MZM23:MZZ23 NJI23:NJV23 NTE23:NTR23 ODA23:ODN23 OMW23:ONJ23 OWS23:OXF23 PGO23:PHB23 PQK23:PQX23 QAG23:QAT23 QKC23:QKP23 QTY23:QUL23 RDU23:REH23 RNQ23:ROD23 RXM23:RXZ23 SHI23:SHV23 SRE23:SRR23 TBA23:TBN23 TKW23:TLJ23 TUS23:TVF23 UEO23:UFB23 UOK23:UOX23 UYG23:UYT23 VIC23:VIP23 VRY23:VSL23 WBU23:WCH23 WLQ23:WMD23 WVM23:WVZ23 E65559:R65559 JA65559:JN65559 SW65559:TJ65559 ACS65559:ADF65559 AMO65559:ANB65559 AWK65559:AWX65559 BGG65559:BGT65559 BQC65559:BQP65559 BZY65559:CAL65559 CJU65559:CKH65559 CTQ65559:CUD65559 DDM65559:DDZ65559 DNI65559:DNV65559 DXE65559:DXR65559 EHA65559:EHN65559 EQW65559:ERJ65559 FAS65559:FBF65559 FKO65559:FLB65559 FUK65559:FUX65559 GEG65559:GET65559 GOC65559:GOP65559 GXY65559:GYL65559 HHU65559:HIH65559 HRQ65559:HSD65559 IBM65559:IBZ65559 ILI65559:ILV65559 IVE65559:IVR65559 JFA65559:JFN65559 JOW65559:JPJ65559 JYS65559:JZF65559 KIO65559:KJB65559 KSK65559:KSX65559 LCG65559:LCT65559 LMC65559:LMP65559 LVY65559:LWL65559 MFU65559:MGH65559 MPQ65559:MQD65559 MZM65559:MZZ65559 NJI65559:NJV65559 NTE65559:NTR65559 ODA65559:ODN65559 OMW65559:ONJ65559 OWS65559:OXF65559 PGO65559:PHB65559 PQK65559:PQX65559 QAG65559:QAT65559 QKC65559:QKP65559 QTY65559:QUL65559 RDU65559:REH65559 RNQ65559:ROD65559 RXM65559:RXZ65559 SHI65559:SHV65559 SRE65559:SRR65559 TBA65559:TBN65559 TKW65559:TLJ65559 TUS65559:TVF65559 UEO65559:UFB65559 UOK65559:UOX65559 UYG65559:UYT65559 VIC65559:VIP65559 VRY65559:VSL65559 WBU65559:WCH65559 WLQ65559:WMD65559 WVM65559:WVZ65559 E131095:R131095 JA131095:JN131095 SW131095:TJ131095 ACS131095:ADF131095 AMO131095:ANB131095 AWK131095:AWX131095 BGG131095:BGT131095 BQC131095:BQP131095 BZY131095:CAL131095 CJU131095:CKH131095 CTQ131095:CUD131095 DDM131095:DDZ131095 DNI131095:DNV131095 DXE131095:DXR131095 EHA131095:EHN131095 EQW131095:ERJ131095 FAS131095:FBF131095 FKO131095:FLB131095 FUK131095:FUX131095 GEG131095:GET131095 GOC131095:GOP131095 GXY131095:GYL131095 HHU131095:HIH131095 HRQ131095:HSD131095 IBM131095:IBZ131095 ILI131095:ILV131095 IVE131095:IVR131095 JFA131095:JFN131095 JOW131095:JPJ131095 JYS131095:JZF131095 KIO131095:KJB131095 KSK131095:KSX131095 LCG131095:LCT131095 LMC131095:LMP131095 LVY131095:LWL131095 MFU131095:MGH131095 MPQ131095:MQD131095 MZM131095:MZZ131095 NJI131095:NJV131095 NTE131095:NTR131095 ODA131095:ODN131095 OMW131095:ONJ131095 OWS131095:OXF131095 PGO131095:PHB131095 PQK131095:PQX131095 QAG131095:QAT131095 QKC131095:QKP131095 QTY131095:QUL131095 RDU131095:REH131095 RNQ131095:ROD131095 RXM131095:RXZ131095 SHI131095:SHV131095 SRE131095:SRR131095 TBA131095:TBN131095 TKW131095:TLJ131095 TUS131095:TVF131095 UEO131095:UFB131095 UOK131095:UOX131095 UYG131095:UYT131095 VIC131095:VIP131095 VRY131095:VSL131095 WBU131095:WCH131095 WLQ131095:WMD131095 WVM131095:WVZ131095 E196631:R196631 JA196631:JN196631 SW196631:TJ196631 ACS196631:ADF196631 AMO196631:ANB196631 AWK196631:AWX196631 BGG196631:BGT196631 BQC196631:BQP196631 BZY196631:CAL196631 CJU196631:CKH196631 CTQ196631:CUD196631 DDM196631:DDZ196631 DNI196631:DNV196631 DXE196631:DXR196631 EHA196631:EHN196631 EQW196631:ERJ196631 FAS196631:FBF196631 FKO196631:FLB196631 FUK196631:FUX196631 GEG196631:GET196631 GOC196631:GOP196631 GXY196631:GYL196631 HHU196631:HIH196631 HRQ196631:HSD196631 IBM196631:IBZ196631 ILI196631:ILV196631 IVE196631:IVR196631 JFA196631:JFN196631 JOW196631:JPJ196631 JYS196631:JZF196631 KIO196631:KJB196631 KSK196631:KSX196631 LCG196631:LCT196631 LMC196631:LMP196631 LVY196631:LWL196631 MFU196631:MGH196631 MPQ196631:MQD196631 MZM196631:MZZ196631 NJI196631:NJV196631 NTE196631:NTR196631 ODA196631:ODN196631 OMW196631:ONJ196631 OWS196631:OXF196631 PGO196631:PHB196631 PQK196631:PQX196631 QAG196631:QAT196631 QKC196631:QKP196631 QTY196631:QUL196631 RDU196631:REH196631 RNQ196631:ROD196631 RXM196631:RXZ196631 SHI196631:SHV196631 SRE196631:SRR196631 TBA196631:TBN196631 TKW196631:TLJ196631 TUS196631:TVF196631 UEO196631:UFB196631 UOK196631:UOX196631 UYG196631:UYT196631 VIC196631:VIP196631 VRY196631:VSL196631 WBU196631:WCH196631 WLQ196631:WMD196631 WVM196631:WVZ196631 E262167:R262167 JA262167:JN262167 SW262167:TJ262167 ACS262167:ADF262167 AMO262167:ANB262167 AWK262167:AWX262167 BGG262167:BGT262167 BQC262167:BQP262167 BZY262167:CAL262167 CJU262167:CKH262167 CTQ262167:CUD262167 DDM262167:DDZ262167 DNI262167:DNV262167 DXE262167:DXR262167 EHA262167:EHN262167 EQW262167:ERJ262167 FAS262167:FBF262167 FKO262167:FLB262167 FUK262167:FUX262167 GEG262167:GET262167 GOC262167:GOP262167 GXY262167:GYL262167 HHU262167:HIH262167 HRQ262167:HSD262167 IBM262167:IBZ262167 ILI262167:ILV262167 IVE262167:IVR262167 JFA262167:JFN262167 JOW262167:JPJ262167 JYS262167:JZF262167 KIO262167:KJB262167 KSK262167:KSX262167 LCG262167:LCT262167 LMC262167:LMP262167 LVY262167:LWL262167 MFU262167:MGH262167 MPQ262167:MQD262167 MZM262167:MZZ262167 NJI262167:NJV262167 NTE262167:NTR262167 ODA262167:ODN262167 OMW262167:ONJ262167 OWS262167:OXF262167 PGO262167:PHB262167 PQK262167:PQX262167 QAG262167:QAT262167 QKC262167:QKP262167 QTY262167:QUL262167 RDU262167:REH262167 RNQ262167:ROD262167 RXM262167:RXZ262167 SHI262167:SHV262167 SRE262167:SRR262167 TBA262167:TBN262167 TKW262167:TLJ262167 TUS262167:TVF262167 UEO262167:UFB262167 UOK262167:UOX262167 UYG262167:UYT262167 VIC262167:VIP262167 VRY262167:VSL262167 WBU262167:WCH262167 WLQ262167:WMD262167 WVM262167:WVZ262167 E327703:R327703 JA327703:JN327703 SW327703:TJ327703 ACS327703:ADF327703 AMO327703:ANB327703 AWK327703:AWX327703 BGG327703:BGT327703 BQC327703:BQP327703 BZY327703:CAL327703 CJU327703:CKH327703 CTQ327703:CUD327703 DDM327703:DDZ327703 DNI327703:DNV327703 DXE327703:DXR327703 EHA327703:EHN327703 EQW327703:ERJ327703 FAS327703:FBF327703 FKO327703:FLB327703 FUK327703:FUX327703 GEG327703:GET327703 GOC327703:GOP327703 GXY327703:GYL327703 HHU327703:HIH327703 HRQ327703:HSD327703 IBM327703:IBZ327703 ILI327703:ILV327703 IVE327703:IVR327703 JFA327703:JFN327703 JOW327703:JPJ327703 JYS327703:JZF327703 KIO327703:KJB327703 KSK327703:KSX327703 LCG327703:LCT327703 LMC327703:LMP327703 LVY327703:LWL327703 MFU327703:MGH327703 MPQ327703:MQD327703 MZM327703:MZZ327703 NJI327703:NJV327703 NTE327703:NTR327703 ODA327703:ODN327703 OMW327703:ONJ327703 OWS327703:OXF327703 PGO327703:PHB327703 PQK327703:PQX327703 QAG327703:QAT327703 QKC327703:QKP327703 QTY327703:QUL327703 RDU327703:REH327703 RNQ327703:ROD327703 RXM327703:RXZ327703 SHI327703:SHV327703 SRE327703:SRR327703 TBA327703:TBN327703 TKW327703:TLJ327703 TUS327703:TVF327703 UEO327703:UFB327703 UOK327703:UOX327703 UYG327703:UYT327703 VIC327703:VIP327703 VRY327703:VSL327703 WBU327703:WCH327703 WLQ327703:WMD327703 WVM327703:WVZ327703 E393239:R393239 JA393239:JN393239 SW393239:TJ393239 ACS393239:ADF393239 AMO393239:ANB393239 AWK393239:AWX393239 BGG393239:BGT393239 BQC393239:BQP393239 BZY393239:CAL393239 CJU393239:CKH393239 CTQ393239:CUD393239 DDM393239:DDZ393239 DNI393239:DNV393239 DXE393239:DXR393239 EHA393239:EHN393239 EQW393239:ERJ393239 FAS393239:FBF393239 FKO393239:FLB393239 FUK393239:FUX393239 GEG393239:GET393239 GOC393239:GOP393239 GXY393239:GYL393239 HHU393239:HIH393239 HRQ393239:HSD393239 IBM393239:IBZ393239 ILI393239:ILV393239 IVE393239:IVR393239 JFA393239:JFN393239 JOW393239:JPJ393239 JYS393239:JZF393239 KIO393239:KJB393239 KSK393239:KSX393239 LCG393239:LCT393239 LMC393239:LMP393239 LVY393239:LWL393239 MFU393239:MGH393239 MPQ393239:MQD393239 MZM393239:MZZ393239 NJI393239:NJV393239 NTE393239:NTR393239 ODA393239:ODN393239 OMW393239:ONJ393239 OWS393239:OXF393239 PGO393239:PHB393239 PQK393239:PQX393239 QAG393239:QAT393239 QKC393239:QKP393239 QTY393239:QUL393239 RDU393239:REH393239 RNQ393239:ROD393239 RXM393239:RXZ393239 SHI393239:SHV393239 SRE393239:SRR393239 TBA393239:TBN393239 TKW393239:TLJ393239 TUS393239:TVF393239 UEO393239:UFB393239 UOK393239:UOX393239 UYG393239:UYT393239 VIC393239:VIP393239 VRY393239:VSL393239 WBU393239:WCH393239 WLQ393239:WMD393239 WVM393239:WVZ393239 E458775:R458775 JA458775:JN458775 SW458775:TJ458775 ACS458775:ADF458775 AMO458775:ANB458775 AWK458775:AWX458775 BGG458775:BGT458775 BQC458775:BQP458775 BZY458775:CAL458775 CJU458775:CKH458775 CTQ458775:CUD458775 DDM458775:DDZ458775 DNI458775:DNV458775 DXE458775:DXR458775 EHA458775:EHN458775 EQW458775:ERJ458775 FAS458775:FBF458775 FKO458775:FLB458775 FUK458775:FUX458775 GEG458775:GET458775 GOC458775:GOP458775 GXY458775:GYL458775 HHU458775:HIH458775 HRQ458775:HSD458775 IBM458775:IBZ458775 ILI458775:ILV458775 IVE458775:IVR458775 JFA458775:JFN458775 JOW458775:JPJ458775 JYS458775:JZF458775 KIO458775:KJB458775 KSK458775:KSX458775 LCG458775:LCT458775 LMC458775:LMP458775 LVY458775:LWL458775 MFU458775:MGH458775 MPQ458775:MQD458775 MZM458775:MZZ458775 NJI458775:NJV458775 NTE458775:NTR458775 ODA458775:ODN458775 OMW458775:ONJ458775 OWS458775:OXF458775 PGO458775:PHB458775 PQK458775:PQX458775 QAG458775:QAT458775 QKC458775:QKP458775 QTY458775:QUL458775 RDU458775:REH458775 RNQ458775:ROD458775 RXM458775:RXZ458775 SHI458775:SHV458775 SRE458775:SRR458775 TBA458775:TBN458775 TKW458775:TLJ458775 TUS458775:TVF458775 UEO458775:UFB458775 UOK458775:UOX458775 UYG458775:UYT458775 VIC458775:VIP458775 VRY458775:VSL458775 WBU458775:WCH458775 WLQ458775:WMD458775 WVM458775:WVZ458775 E524311:R524311 JA524311:JN524311 SW524311:TJ524311 ACS524311:ADF524311 AMO524311:ANB524311 AWK524311:AWX524311 BGG524311:BGT524311 BQC524311:BQP524311 BZY524311:CAL524311 CJU524311:CKH524311 CTQ524311:CUD524311 DDM524311:DDZ524311 DNI524311:DNV524311 DXE524311:DXR524311 EHA524311:EHN524311 EQW524311:ERJ524311 FAS524311:FBF524311 FKO524311:FLB524311 FUK524311:FUX524311 GEG524311:GET524311 GOC524311:GOP524311 GXY524311:GYL524311 HHU524311:HIH524311 HRQ524311:HSD524311 IBM524311:IBZ524311 ILI524311:ILV524311 IVE524311:IVR524311 JFA524311:JFN524311 JOW524311:JPJ524311 JYS524311:JZF524311 KIO524311:KJB524311 KSK524311:KSX524311 LCG524311:LCT524311 LMC524311:LMP524311 LVY524311:LWL524311 MFU524311:MGH524311 MPQ524311:MQD524311 MZM524311:MZZ524311 NJI524311:NJV524311 NTE524311:NTR524311 ODA524311:ODN524311 OMW524311:ONJ524311 OWS524311:OXF524311 PGO524311:PHB524311 PQK524311:PQX524311 QAG524311:QAT524311 QKC524311:QKP524311 QTY524311:QUL524311 RDU524311:REH524311 RNQ524311:ROD524311 RXM524311:RXZ524311 SHI524311:SHV524311 SRE524311:SRR524311 TBA524311:TBN524311 TKW524311:TLJ524311 TUS524311:TVF524311 UEO524311:UFB524311 UOK524311:UOX524311 UYG524311:UYT524311 VIC524311:VIP524311 VRY524311:VSL524311 WBU524311:WCH524311 WLQ524311:WMD524311 WVM524311:WVZ524311 E589847:R589847 JA589847:JN589847 SW589847:TJ589847 ACS589847:ADF589847 AMO589847:ANB589847 AWK589847:AWX589847 BGG589847:BGT589847 BQC589847:BQP589847 BZY589847:CAL589847 CJU589847:CKH589847 CTQ589847:CUD589847 DDM589847:DDZ589847 DNI589847:DNV589847 DXE589847:DXR589847 EHA589847:EHN589847 EQW589847:ERJ589847 FAS589847:FBF589847 FKO589847:FLB589847 FUK589847:FUX589847 GEG589847:GET589847 GOC589847:GOP589847 GXY589847:GYL589847 HHU589847:HIH589847 HRQ589847:HSD589847 IBM589847:IBZ589847 ILI589847:ILV589847 IVE589847:IVR589847 JFA589847:JFN589847 JOW589847:JPJ589847 JYS589847:JZF589847 KIO589847:KJB589847 KSK589847:KSX589847 LCG589847:LCT589847 LMC589847:LMP589847 LVY589847:LWL589847 MFU589847:MGH589847 MPQ589847:MQD589847 MZM589847:MZZ589847 NJI589847:NJV589847 NTE589847:NTR589847 ODA589847:ODN589847 OMW589847:ONJ589847 OWS589847:OXF589847 PGO589847:PHB589847 PQK589847:PQX589847 QAG589847:QAT589847 QKC589847:QKP589847 QTY589847:QUL589847 RDU589847:REH589847 RNQ589847:ROD589847 RXM589847:RXZ589847 SHI589847:SHV589847 SRE589847:SRR589847 TBA589847:TBN589847 TKW589847:TLJ589847 TUS589847:TVF589847 UEO589847:UFB589847 UOK589847:UOX589847 UYG589847:UYT589847 VIC589847:VIP589847 VRY589847:VSL589847 WBU589847:WCH589847 WLQ589847:WMD589847 WVM589847:WVZ589847 E655383:R655383 JA655383:JN655383 SW655383:TJ655383 ACS655383:ADF655383 AMO655383:ANB655383 AWK655383:AWX655383 BGG655383:BGT655383 BQC655383:BQP655383 BZY655383:CAL655383 CJU655383:CKH655383 CTQ655383:CUD655383 DDM655383:DDZ655383 DNI655383:DNV655383 DXE655383:DXR655383 EHA655383:EHN655383 EQW655383:ERJ655383 FAS655383:FBF655383 FKO655383:FLB655383 FUK655383:FUX655383 GEG655383:GET655383 GOC655383:GOP655383 GXY655383:GYL655383 HHU655383:HIH655383 HRQ655383:HSD655383 IBM655383:IBZ655383 ILI655383:ILV655383 IVE655383:IVR655383 JFA655383:JFN655383 JOW655383:JPJ655383 JYS655383:JZF655383 KIO655383:KJB655383 KSK655383:KSX655383 LCG655383:LCT655383 LMC655383:LMP655383 LVY655383:LWL655383 MFU655383:MGH655383 MPQ655383:MQD655383 MZM655383:MZZ655383 NJI655383:NJV655383 NTE655383:NTR655383 ODA655383:ODN655383 OMW655383:ONJ655383 OWS655383:OXF655383 PGO655383:PHB655383 PQK655383:PQX655383 QAG655383:QAT655383 QKC655383:QKP655383 QTY655383:QUL655383 RDU655383:REH655383 RNQ655383:ROD655383 RXM655383:RXZ655383 SHI655383:SHV655383 SRE655383:SRR655383 TBA655383:TBN655383 TKW655383:TLJ655383 TUS655383:TVF655383 UEO655383:UFB655383 UOK655383:UOX655383 UYG655383:UYT655383 VIC655383:VIP655383 VRY655383:VSL655383 WBU655383:WCH655383 WLQ655383:WMD655383 WVM655383:WVZ655383 E720919:R720919 JA720919:JN720919 SW720919:TJ720919 ACS720919:ADF720919 AMO720919:ANB720919 AWK720919:AWX720919 BGG720919:BGT720919 BQC720919:BQP720919 BZY720919:CAL720919 CJU720919:CKH720919 CTQ720919:CUD720919 DDM720919:DDZ720919 DNI720919:DNV720919 DXE720919:DXR720919 EHA720919:EHN720919 EQW720919:ERJ720919 FAS720919:FBF720919 FKO720919:FLB720919 FUK720919:FUX720919 GEG720919:GET720919 GOC720919:GOP720919 GXY720919:GYL720919 HHU720919:HIH720919 HRQ720919:HSD720919 IBM720919:IBZ720919 ILI720919:ILV720919 IVE720919:IVR720919 JFA720919:JFN720919 JOW720919:JPJ720919 JYS720919:JZF720919 KIO720919:KJB720919 KSK720919:KSX720919 LCG720919:LCT720919 LMC720919:LMP720919 LVY720919:LWL720919 MFU720919:MGH720919 MPQ720919:MQD720919 MZM720919:MZZ720919 NJI720919:NJV720919 NTE720919:NTR720919 ODA720919:ODN720919 OMW720919:ONJ720919 OWS720919:OXF720919 PGO720919:PHB720919 PQK720919:PQX720919 QAG720919:QAT720919 QKC720919:QKP720919 QTY720919:QUL720919 RDU720919:REH720919 RNQ720919:ROD720919 RXM720919:RXZ720919 SHI720919:SHV720919 SRE720919:SRR720919 TBA720919:TBN720919 TKW720919:TLJ720919 TUS720919:TVF720919 UEO720919:UFB720919 UOK720919:UOX720919 UYG720919:UYT720919 VIC720919:VIP720919 VRY720919:VSL720919 WBU720919:WCH720919 WLQ720919:WMD720919 WVM720919:WVZ720919 E786455:R786455 JA786455:JN786455 SW786455:TJ786455 ACS786455:ADF786455 AMO786455:ANB786455 AWK786455:AWX786455 BGG786455:BGT786455 BQC786455:BQP786455 BZY786455:CAL786455 CJU786455:CKH786455 CTQ786455:CUD786455 DDM786455:DDZ786455 DNI786455:DNV786455 DXE786455:DXR786455 EHA786455:EHN786455 EQW786455:ERJ786455 FAS786455:FBF786455 FKO786455:FLB786455 FUK786455:FUX786455 GEG786455:GET786455 GOC786455:GOP786455 GXY786455:GYL786455 HHU786455:HIH786455 HRQ786455:HSD786455 IBM786455:IBZ786455 ILI786455:ILV786455 IVE786455:IVR786455 JFA786455:JFN786455 JOW786455:JPJ786455 JYS786455:JZF786455 KIO786455:KJB786455 KSK786455:KSX786455 LCG786455:LCT786455 LMC786455:LMP786455 LVY786455:LWL786455 MFU786455:MGH786455 MPQ786455:MQD786455 MZM786455:MZZ786455 NJI786455:NJV786455 NTE786455:NTR786455 ODA786455:ODN786455 OMW786455:ONJ786455 OWS786455:OXF786455 PGO786455:PHB786455 PQK786455:PQX786455 QAG786455:QAT786455 QKC786455:QKP786455 QTY786455:QUL786455 RDU786455:REH786455 RNQ786455:ROD786455 RXM786455:RXZ786455 SHI786455:SHV786455 SRE786455:SRR786455 TBA786455:TBN786455 TKW786455:TLJ786455 TUS786455:TVF786455 UEO786455:UFB786455 UOK786455:UOX786455 UYG786455:UYT786455 VIC786455:VIP786455 VRY786455:VSL786455 WBU786455:WCH786455 WLQ786455:WMD786455 WVM786455:WVZ786455 E851991:R851991 JA851991:JN851991 SW851991:TJ851991 ACS851991:ADF851991 AMO851991:ANB851991 AWK851991:AWX851991 BGG851991:BGT851991 BQC851991:BQP851991 BZY851991:CAL851991 CJU851991:CKH851991 CTQ851991:CUD851991 DDM851991:DDZ851991 DNI851991:DNV851991 DXE851991:DXR851991 EHA851991:EHN851991 EQW851991:ERJ851991 FAS851991:FBF851991 FKO851991:FLB851991 FUK851991:FUX851991 GEG851991:GET851991 GOC851991:GOP851991 GXY851991:GYL851991 HHU851991:HIH851991 HRQ851991:HSD851991 IBM851991:IBZ851991 ILI851991:ILV851991 IVE851991:IVR851991 JFA851991:JFN851991 JOW851991:JPJ851991 JYS851991:JZF851991 KIO851991:KJB851991 KSK851991:KSX851991 LCG851991:LCT851991 LMC851991:LMP851991 LVY851991:LWL851991 MFU851991:MGH851991 MPQ851991:MQD851991 MZM851991:MZZ851991 NJI851991:NJV851991 NTE851991:NTR851991 ODA851991:ODN851991 OMW851991:ONJ851991 OWS851991:OXF851991 PGO851991:PHB851991 PQK851991:PQX851991 QAG851991:QAT851991 QKC851991:QKP851991 QTY851991:QUL851991 RDU851991:REH851991 RNQ851991:ROD851991 RXM851991:RXZ851991 SHI851991:SHV851991 SRE851991:SRR851991 TBA851991:TBN851991 TKW851991:TLJ851991 TUS851991:TVF851991 UEO851991:UFB851991 UOK851991:UOX851991 UYG851991:UYT851991 VIC851991:VIP851991 VRY851991:VSL851991 WBU851991:WCH851991 WLQ851991:WMD851991 WVM851991:WVZ851991 E917527:R917527 JA917527:JN917527 SW917527:TJ917527 ACS917527:ADF917527 AMO917527:ANB917527 AWK917527:AWX917527 BGG917527:BGT917527 BQC917527:BQP917527 BZY917527:CAL917527 CJU917527:CKH917527 CTQ917527:CUD917527 DDM917527:DDZ917527 DNI917527:DNV917527 DXE917527:DXR917527 EHA917527:EHN917527 EQW917527:ERJ917527 FAS917527:FBF917527 FKO917527:FLB917527 FUK917527:FUX917527 GEG917527:GET917527 GOC917527:GOP917527 GXY917527:GYL917527 HHU917527:HIH917527 HRQ917527:HSD917527 IBM917527:IBZ917527 ILI917527:ILV917527 IVE917527:IVR917527 JFA917527:JFN917527 JOW917527:JPJ917527 JYS917527:JZF917527 KIO917527:KJB917527 KSK917527:KSX917527 LCG917527:LCT917527 LMC917527:LMP917527 LVY917527:LWL917527 MFU917527:MGH917527 MPQ917527:MQD917527 MZM917527:MZZ917527 NJI917527:NJV917527 NTE917527:NTR917527 ODA917527:ODN917527 OMW917527:ONJ917527 OWS917527:OXF917527 PGO917527:PHB917527 PQK917527:PQX917527 QAG917527:QAT917527 QKC917527:QKP917527 QTY917527:QUL917527 RDU917527:REH917527 RNQ917527:ROD917527 RXM917527:RXZ917527 SHI917527:SHV917527 SRE917527:SRR917527 TBA917527:TBN917527 TKW917527:TLJ917527 TUS917527:TVF917527 UEO917527:UFB917527 UOK917527:UOX917527 UYG917527:UYT917527 VIC917527:VIP917527 VRY917527:VSL917527 WBU917527:WCH917527 WLQ917527:WMD917527 WVM917527:WVZ917527 E983063:R983063 JA983063:JN983063 SW983063:TJ983063 ACS983063:ADF983063 AMO983063:ANB983063 AWK983063:AWX983063 BGG983063:BGT983063 BQC983063:BQP983063 BZY983063:CAL983063 CJU983063:CKH983063 CTQ983063:CUD983063 DDM983063:DDZ983063 DNI983063:DNV983063 DXE983063:DXR983063 EHA983063:EHN983063 EQW983063:ERJ983063 FAS983063:FBF983063 FKO983063:FLB983063 FUK983063:FUX983063 GEG983063:GET983063 GOC983063:GOP983063 GXY983063:GYL983063 HHU983063:HIH983063 HRQ983063:HSD983063 IBM983063:IBZ983063 ILI983063:ILV983063 IVE983063:IVR983063 JFA983063:JFN983063 JOW983063:JPJ983063 JYS983063:JZF983063 KIO983063:KJB983063 KSK983063:KSX983063 LCG983063:LCT983063 LMC983063:LMP983063 LVY983063:LWL983063 MFU983063:MGH983063 MPQ983063:MQD983063 MZM983063:MZZ983063 NJI983063:NJV983063 NTE983063:NTR983063 ODA983063:ODN983063 OMW983063:ONJ983063 OWS983063:OXF983063 PGO983063:PHB983063 PQK983063:PQX983063 QAG983063:QAT983063 QKC983063:QKP983063 QTY983063:QUL983063 RDU983063:REH983063 RNQ983063:ROD983063 RXM983063:RXZ983063 SHI983063:SHV983063 SRE983063:SRR983063 TBA983063:TBN983063 TKW983063:TLJ983063 TUS983063:TVF983063 UEO983063:UFB983063 UOK983063:UOX983063 UYG983063:UYT983063 VIC983063:VIP983063 VRY983063:VSL983063 WBU983063:WCH983063 WLQ983063:WMD983063 E23:R23">
@@ -12363,7 +12363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
@@ -12886,136 +12888,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="196" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="224" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="198" t="s">
+      <c r="D2" s="225"/>
+      <c r="E2" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201" t="str">
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="229" t="str">
         <f>C2</f>
         <v>GetAllConservationByUserId</v>
       </c>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="231"/>
       <c r="T2" s="73"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="206" t="str">
+      <c r="B3" s="211"/>
+      <c r="C3" s="232" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="207"/>
-      <c r="E3" s="208" t="s">
+      <c r="D3" s="233"/>
+      <c r="E3" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="211" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="237" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="212"/>
-      <c r="K3" s="212"/>
-      <c r="L3" s="212"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="213"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="239"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="204" t="s">
+      <c r="A4" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="214"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214"/>
-      <c r="N4" s="214"/>
-      <c r="O4" s="214"/>
-      <c r="P4" s="214"/>
-      <c r="Q4" s="214"/>
-      <c r="R4" s="216"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="214"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="219" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="220"/>
-      <c r="E5" s="221" t="s">
+      <c r="D5" s="218"/>
+      <c r="E5" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="220" t="s">
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="221" t="s">
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="220"/>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="223"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="221"/>
       <c r="T5" s="73"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="227">
+      <c r="A6" s="197">
         <f>COUNTIF(E23:HM23,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="228"/>
-      <c r="C6" s="229">
+      <c r="B6" s="198"/>
+      <c r="C6" s="199">
         <f>COUNTIF(E23:HO23,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="230"/>
-      <c r="E6" s="231">
+      <c r="D6" s="200"/>
+      <c r="E6" s="201">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
-      <c r="H6" s="232"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="202"/>
       <c r="I6" s="117">
         <f>COUNTIF(E22:HM22,"N")</f>
         <v>0</v>
@@ -13028,16 +13030,16 @@
         <f>COUNTIF(E22:HM22,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="231">
+      <c r="L6" s="201">
         <f>COUNTA(E8:P8)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="230"/>
-      <c r="N6" s="230"/>
-      <c r="O6" s="230"/>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="233"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="203"/>
       <c r="S6" s="118"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -13073,7 +13075,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="139" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C9" s="140"/>
       <c r="D9" s="141"/>
@@ -13101,7 +13103,7 @@
     <row r="10" spans="1:20" ht="13.5" customHeight="1">
       <c r="A10" s="135"/>
       <c r="B10" s="139" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C10" s="140"/>
       <c r="D10" s="141"/>
@@ -13129,7 +13131,7 @@
     <row r="11" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A11" s="135"/>
       <c r="B11" s="139" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C11" s="140"/>
       <c r="D11" s="141"/>
@@ -13159,7 +13161,7 @@
         <v>50</v>
       </c>
       <c r="B12" s="139" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C12" s="140"/>
       <c r="D12" s="141"/>
@@ -13183,7 +13185,7 @@
       <c r="B13" s="139"/>
       <c r="C13" s="140"/>
       <c r="D13" s="141" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E13" s="134" t="s">
         <v>68</v>
@@ -13207,7 +13209,7 @@
       <c r="B14" s="139"/>
       <c r="C14" s="140"/>
       <c r="D14" s="141" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E14" s="148"/>
       <c r="F14" s="134" t="s">
@@ -13231,7 +13233,7 @@
       <c r="B15" s="159"/>
       <c r="C15" s="160"/>
       <c r="D15" s="161" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E15" s="162"/>
       <c r="F15" s="162"/>
@@ -13297,7 +13299,7 @@
     <row r="18" spans="1:18">
       <c r="A18" s="136"/>
       <c r="B18" s="130" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C18" s="131"/>
       <c r="D18" s="132"/>
@@ -13323,7 +13325,7 @@
     <row r="19" spans="1:18">
       <c r="A19" s="136"/>
       <c r="B19" s="130" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C19" s="131"/>
       <c r="D19" s="171"/>
@@ -13388,11 +13390,11 @@
       <c r="A22" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="234" t="s">
+      <c r="B22" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="235"/>
-      <c r="D22" s="236"/>
+      <c r="C22" s="205"/>
+      <c r="D22" s="206"/>
       <c r="E22" s="157" t="s">
         <v>36</v>
       </c>
@@ -13416,11 +13418,11 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="136"/>
-      <c r="B23" s="237" t="s">
+      <c r="B23" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="238"/>
-      <c r="D23" s="239"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="134" t="s">
         <v>38</v>
       </c>
@@ -13444,11 +13446,11 @@
     </row>
     <row r="24" spans="1:18" ht="54">
       <c r="A24" s="136"/>
-      <c r="B24" s="224" t="s">
+      <c r="B24" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="225"/>
-      <c r="D24" s="226"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="196"/>
       <c r="E24" s="133">
         <v>42594</v>
       </c>
@@ -13555,20 +13557,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -13577,6 +13565,20 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM983062:WVZ983062 JA22:JN22 SW22:TJ22 ACS22:ADF22 AMO22:ANB22 AWK22:AWX22 BGG22:BGT22 BQC22:BQP22 BZY22:CAL22 CJU22:CKH22 CTQ22:CUD22 DDM22:DDZ22 DNI22:DNV22 DXE22:DXR22 EHA22:EHN22 EQW22:ERJ22 FAS22:FBF22 FKO22:FLB22 FUK22:FUX22 GEG22:GET22 GOC22:GOP22 GXY22:GYL22 HHU22:HIH22 HRQ22:HSD22 IBM22:IBZ22 ILI22:ILV22 IVE22:IVR22 JFA22:JFN22 JOW22:JPJ22 JYS22:JZF22 KIO22:KJB22 KSK22:KSX22 LCG22:LCT22 LMC22:LMP22 LVY22:LWL22 MFU22:MGH22 MPQ22:MQD22 MZM22:MZZ22 NJI22:NJV22 NTE22:NTR22 ODA22:ODN22 OMW22:ONJ22 OWS22:OXF22 PGO22:PHB22 PQK22:PQX22 QAG22:QAT22 QKC22:QKP22 QTY22:QUL22 RDU22:REH22 RNQ22:ROD22 RXM22:RXZ22 SHI22:SHV22 SRE22:SRR22 TBA22:TBN22 TKW22:TLJ22 TUS22:TVF22 UEO22:UFB22 UOK22:UOX22 UYG22:UYT22 VIC22:VIP22 VRY22:VSL22 WBU22:WCH22 WLQ22:WMD22 WVM22:WVZ22 E65558:R65558 JA65558:JN65558 SW65558:TJ65558 ACS65558:ADF65558 AMO65558:ANB65558 AWK65558:AWX65558 BGG65558:BGT65558 BQC65558:BQP65558 BZY65558:CAL65558 CJU65558:CKH65558 CTQ65558:CUD65558 DDM65558:DDZ65558 DNI65558:DNV65558 DXE65558:DXR65558 EHA65558:EHN65558 EQW65558:ERJ65558 FAS65558:FBF65558 FKO65558:FLB65558 FUK65558:FUX65558 GEG65558:GET65558 GOC65558:GOP65558 GXY65558:GYL65558 HHU65558:HIH65558 HRQ65558:HSD65558 IBM65558:IBZ65558 ILI65558:ILV65558 IVE65558:IVR65558 JFA65558:JFN65558 JOW65558:JPJ65558 JYS65558:JZF65558 KIO65558:KJB65558 KSK65558:KSX65558 LCG65558:LCT65558 LMC65558:LMP65558 LVY65558:LWL65558 MFU65558:MGH65558 MPQ65558:MQD65558 MZM65558:MZZ65558 NJI65558:NJV65558 NTE65558:NTR65558 ODA65558:ODN65558 OMW65558:ONJ65558 OWS65558:OXF65558 PGO65558:PHB65558 PQK65558:PQX65558 QAG65558:QAT65558 QKC65558:QKP65558 QTY65558:QUL65558 RDU65558:REH65558 RNQ65558:ROD65558 RXM65558:RXZ65558 SHI65558:SHV65558 SRE65558:SRR65558 TBA65558:TBN65558 TKW65558:TLJ65558 TUS65558:TVF65558 UEO65558:UFB65558 UOK65558:UOX65558 UYG65558:UYT65558 VIC65558:VIP65558 VRY65558:VSL65558 WBU65558:WCH65558 WLQ65558:WMD65558 WVM65558:WVZ65558 E131094:R131094 JA131094:JN131094 SW131094:TJ131094 ACS131094:ADF131094 AMO131094:ANB131094 AWK131094:AWX131094 BGG131094:BGT131094 BQC131094:BQP131094 BZY131094:CAL131094 CJU131094:CKH131094 CTQ131094:CUD131094 DDM131094:DDZ131094 DNI131094:DNV131094 DXE131094:DXR131094 EHA131094:EHN131094 EQW131094:ERJ131094 FAS131094:FBF131094 FKO131094:FLB131094 FUK131094:FUX131094 GEG131094:GET131094 GOC131094:GOP131094 GXY131094:GYL131094 HHU131094:HIH131094 HRQ131094:HSD131094 IBM131094:IBZ131094 ILI131094:ILV131094 IVE131094:IVR131094 JFA131094:JFN131094 JOW131094:JPJ131094 JYS131094:JZF131094 KIO131094:KJB131094 KSK131094:KSX131094 LCG131094:LCT131094 LMC131094:LMP131094 LVY131094:LWL131094 MFU131094:MGH131094 MPQ131094:MQD131094 MZM131094:MZZ131094 NJI131094:NJV131094 NTE131094:NTR131094 ODA131094:ODN131094 OMW131094:ONJ131094 OWS131094:OXF131094 PGO131094:PHB131094 PQK131094:PQX131094 QAG131094:QAT131094 QKC131094:QKP131094 QTY131094:QUL131094 RDU131094:REH131094 RNQ131094:ROD131094 RXM131094:RXZ131094 SHI131094:SHV131094 SRE131094:SRR131094 TBA131094:TBN131094 TKW131094:TLJ131094 TUS131094:TVF131094 UEO131094:UFB131094 UOK131094:UOX131094 UYG131094:UYT131094 VIC131094:VIP131094 VRY131094:VSL131094 WBU131094:WCH131094 WLQ131094:WMD131094 WVM131094:WVZ131094 E196630:R196630 JA196630:JN196630 SW196630:TJ196630 ACS196630:ADF196630 AMO196630:ANB196630 AWK196630:AWX196630 BGG196630:BGT196630 BQC196630:BQP196630 BZY196630:CAL196630 CJU196630:CKH196630 CTQ196630:CUD196630 DDM196630:DDZ196630 DNI196630:DNV196630 DXE196630:DXR196630 EHA196630:EHN196630 EQW196630:ERJ196630 FAS196630:FBF196630 FKO196630:FLB196630 FUK196630:FUX196630 GEG196630:GET196630 GOC196630:GOP196630 GXY196630:GYL196630 HHU196630:HIH196630 HRQ196630:HSD196630 IBM196630:IBZ196630 ILI196630:ILV196630 IVE196630:IVR196630 JFA196630:JFN196630 JOW196630:JPJ196630 JYS196630:JZF196630 KIO196630:KJB196630 KSK196630:KSX196630 LCG196630:LCT196630 LMC196630:LMP196630 LVY196630:LWL196630 MFU196630:MGH196630 MPQ196630:MQD196630 MZM196630:MZZ196630 NJI196630:NJV196630 NTE196630:NTR196630 ODA196630:ODN196630 OMW196630:ONJ196630 OWS196630:OXF196630 PGO196630:PHB196630 PQK196630:PQX196630 QAG196630:QAT196630 QKC196630:QKP196630 QTY196630:QUL196630 RDU196630:REH196630 RNQ196630:ROD196630 RXM196630:RXZ196630 SHI196630:SHV196630 SRE196630:SRR196630 TBA196630:TBN196630 TKW196630:TLJ196630 TUS196630:TVF196630 UEO196630:UFB196630 UOK196630:UOX196630 UYG196630:UYT196630 VIC196630:VIP196630 VRY196630:VSL196630 WBU196630:WCH196630 WLQ196630:WMD196630 WVM196630:WVZ196630 E262166:R262166 JA262166:JN262166 SW262166:TJ262166 ACS262166:ADF262166 AMO262166:ANB262166 AWK262166:AWX262166 BGG262166:BGT262166 BQC262166:BQP262166 BZY262166:CAL262166 CJU262166:CKH262166 CTQ262166:CUD262166 DDM262166:DDZ262166 DNI262166:DNV262166 DXE262166:DXR262166 EHA262166:EHN262166 EQW262166:ERJ262166 FAS262166:FBF262166 FKO262166:FLB262166 FUK262166:FUX262166 GEG262166:GET262166 GOC262166:GOP262166 GXY262166:GYL262166 HHU262166:HIH262166 HRQ262166:HSD262166 IBM262166:IBZ262166 ILI262166:ILV262166 IVE262166:IVR262166 JFA262166:JFN262166 JOW262166:JPJ262166 JYS262166:JZF262166 KIO262166:KJB262166 KSK262166:KSX262166 LCG262166:LCT262166 LMC262166:LMP262166 LVY262166:LWL262166 MFU262166:MGH262166 MPQ262166:MQD262166 MZM262166:MZZ262166 NJI262166:NJV262166 NTE262166:NTR262166 ODA262166:ODN262166 OMW262166:ONJ262166 OWS262166:OXF262166 PGO262166:PHB262166 PQK262166:PQX262166 QAG262166:QAT262166 QKC262166:QKP262166 QTY262166:QUL262166 RDU262166:REH262166 RNQ262166:ROD262166 RXM262166:RXZ262166 SHI262166:SHV262166 SRE262166:SRR262166 TBA262166:TBN262166 TKW262166:TLJ262166 TUS262166:TVF262166 UEO262166:UFB262166 UOK262166:UOX262166 UYG262166:UYT262166 VIC262166:VIP262166 VRY262166:VSL262166 WBU262166:WCH262166 WLQ262166:WMD262166 WVM262166:WVZ262166 E327702:R327702 JA327702:JN327702 SW327702:TJ327702 ACS327702:ADF327702 AMO327702:ANB327702 AWK327702:AWX327702 BGG327702:BGT327702 BQC327702:BQP327702 BZY327702:CAL327702 CJU327702:CKH327702 CTQ327702:CUD327702 DDM327702:DDZ327702 DNI327702:DNV327702 DXE327702:DXR327702 EHA327702:EHN327702 EQW327702:ERJ327702 FAS327702:FBF327702 FKO327702:FLB327702 FUK327702:FUX327702 GEG327702:GET327702 GOC327702:GOP327702 GXY327702:GYL327702 HHU327702:HIH327702 HRQ327702:HSD327702 IBM327702:IBZ327702 ILI327702:ILV327702 IVE327702:IVR327702 JFA327702:JFN327702 JOW327702:JPJ327702 JYS327702:JZF327702 KIO327702:KJB327702 KSK327702:KSX327702 LCG327702:LCT327702 LMC327702:LMP327702 LVY327702:LWL327702 MFU327702:MGH327702 MPQ327702:MQD327702 MZM327702:MZZ327702 NJI327702:NJV327702 NTE327702:NTR327702 ODA327702:ODN327702 OMW327702:ONJ327702 OWS327702:OXF327702 PGO327702:PHB327702 PQK327702:PQX327702 QAG327702:QAT327702 QKC327702:QKP327702 QTY327702:QUL327702 RDU327702:REH327702 RNQ327702:ROD327702 RXM327702:RXZ327702 SHI327702:SHV327702 SRE327702:SRR327702 TBA327702:TBN327702 TKW327702:TLJ327702 TUS327702:TVF327702 UEO327702:UFB327702 UOK327702:UOX327702 UYG327702:UYT327702 VIC327702:VIP327702 VRY327702:VSL327702 WBU327702:WCH327702 WLQ327702:WMD327702 WVM327702:WVZ327702 E393238:R393238 JA393238:JN393238 SW393238:TJ393238 ACS393238:ADF393238 AMO393238:ANB393238 AWK393238:AWX393238 BGG393238:BGT393238 BQC393238:BQP393238 BZY393238:CAL393238 CJU393238:CKH393238 CTQ393238:CUD393238 DDM393238:DDZ393238 DNI393238:DNV393238 DXE393238:DXR393238 EHA393238:EHN393238 EQW393238:ERJ393238 FAS393238:FBF393238 FKO393238:FLB393238 FUK393238:FUX393238 GEG393238:GET393238 GOC393238:GOP393238 GXY393238:GYL393238 HHU393238:HIH393238 HRQ393238:HSD393238 IBM393238:IBZ393238 ILI393238:ILV393238 IVE393238:IVR393238 JFA393238:JFN393238 JOW393238:JPJ393238 JYS393238:JZF393238 KIO393238:KJB393238 KSK393238:KSX393238 LCG393238:LCT393238 LMC393238:LMP393238 LVY393238:LWL393238 MFU393238:MGH393238 MPQ393238:MQD393238 MZM393238:MZZ393238 NJI393238:NJV393238 NTE393238:NTR393238 ODA393238:ODN393238 OMW393238:ONJ393238 OWS393238:OXF393238 PGO393238:PHB393238 PQK393238:PQX393238 QAG393238:QAT393238 QKC393238:QKP393238 QTY393238:QUL393238 RDU393238:REH393238 RNQ393238:ROD393238 RXM393238:RXZ393238 SHI393238:SHV393238 SRE393238:SRR393238 TBA393238:TBN393238 TKW393238:TLJ393238 TUS393238:TVF393238 UEO393238:UFB393238 UOK393238:UOX393238 UYG393238:UYT393238 VIC393238:VIP393238 VRY393238:VSL393238 WBU393238:WCH393238 WLQ393238:WMD393238 WVM393238:WVZ393238 E458774:R458774 JA458774:JN458774 SW458774:TJ458774 ACS458774:ADF458774 AMO458774:ANB458774 AWK458774:AWX458774 BGG458774:BGT458774 BQC458774:BQP458774 BZY458774:CAL458774 CJU458774:CKH458774 CTQ458774:CUD458774 DDM458774:DDZ458774 DNI458774:DNV458774 DXE458774:DXR458774 EHA458774:EHN458774 EQW458774:ERJ458774 FAS458774:FBF458774 FKO458774:FLB458774 FUK458774:FUX458774 GEG458774:GET458774 GOC458774:GOP458774 GXY458774:GYL458774 HHU458774:HIH458774 HRQ458774:HSD458774 IBM458774:IBZ458774 ILI458774:ILV458774 IVE458774:IVR458774 JFA458774:JFN458774 JOW458774:JPJ458774 JYS458774:JZF458774 KIO458774:KJB458774 KSK458774:KSX458774 LCG458774:LCT458774 LMC458774:LMP458774 LVY458774:LWL458774 MFU458774:MGH458774 MPQ458774:MQD458774 MZM458774:MZZ458774 NJI458774:NJV458774 NTE458774:NTR458774 ODA458774:ODN458774 OMW458774:ONJ458774 OWS458774:OXF458774 PGO458774:PHB458774 PQK458774:PQX458774 QAG458774:QAT458774 QKC458774:QKP458774 QTY458774:QUL458774 RDU458774:REH458774 RNQ458774:ROD458774 RXM458774:RXZ458774 SHI458774:SHV458774 SRE458774:SRR458774 TBA458774:TBN458774 TKW458774:TLJ458774 TUS458774:TVF458774 UEO458774:UFB458774 UOK458774:UOX458774 UYG458774:UYT458774 VIC458774:VIP458774 VRY458774:VSL458774 WBU458774:WCH458774 WLQ458774:WMD458774 WVM458774:WVZ458774 E524310:R524310 JA524310:JN524310 SW524310:TJ524310 ACS524310:ADF524310 AMO524310:ANB524310 AWK524310:AWX524310 BGG524310:BGT524310 BQC524310:BQP524310 BZY524310:CAL524310 CJU524310:CKH524310 CTQ524310:CUD524310 DDM524310:DDZ524310 DNI524310:DNV524310 DXE524310:DXR524310 EHA524310:EHN524310 EQW524310:ERJ524310 FAS524310:FBF524310 FKO524310:FLB524310 FUK524310:FUX524310 GEG524310:GET524310 GOC524310:GOP524310 GXY524310:GYL524310 HHU524310:HIH524310 HRQ524310:HSD524310 IBM524310:IBZ524310 ILI524310:ILV524310 IVE524310:IVR524310 JFA524310:JFN524310 JOW524310:JPJ524310 JYS524310:JZF524310 KIO524310:KJB524310 KSK524310:KSX524310 LCG524310:LCT524310 LMC524310:LMP524310 LVY524310:LWL524310 MFU524310:MGH524310 MPQ524310:MQD524310 MZM524310:MZZ524310 NJI524310:NJV524310 NTE524310:NTR524310 ODA524310:ODN524310 OMW524310:ONJ524310 OWS524310:OXF524310 PGO524310:PHB524310 PQK524310:PQX524310 QAG524310:QAT524310 QKC524310:QKP524310 QTY524310:QUL524310 RDU524310:REH524310 RNQ524310:ROD524310 RXM524310:RXZ524310 SHI524310:SHV524310 SRE524310:SRR524310 TBA524310:TBN524310 TKW524310:TLJ524310 TUS524310:TVF524310 UEO524310:UFB524310 UOK524310:UOX524310 UYG524310:UYT524310 VIC524310:VIP524310 VRY524310:VSL524310 WBU524310:WCH524310 WLQ524310:WMD524310 WVM524310:WVZ524310 E589846:R589846 JA589846:JN589846 SW589846:TJ589846 ACS589846:ADF589846 AMO589846:ANB589846 AWK589846:AWX589846 BGG589846:BGT589846 BQC589846:BQP589846 BZY589846:CAL589846 CJU589846:CKH589846 CTQ589846:CUD589846 DDM589846:DDZ589846 DNI589846:DNV589846 DXE589846:DXR589846 EHA589846:EHN589846 EQW589846:ERJ589846 FAS589846:FBF589846 FKO589846:FLB589846 FUK589846:FUX589846 GEG589846:GET589846 GOC589846:GOP589846 GXY589846:GYL589846 HHU589846:HIH589846 HRQ589846:HSD589846 IBM589846:IBZ589846 ILI589846:ILV589846 IVE589846:IVR589846 JFA589846:JFN589846 JOW589846:JPJ589846 JYS589846:JZF589846 KIO589846:KJB589846 KSK589846:KSX589846 LCG589846:LCT589846 LMC589846:LMP589846 LVY589846:LWL589846 MFU589846:MGH589846 MPQ589846:MQD589846 MZM589846:MZZ589846 NJI589846:NJV589846 NTE589846:NTR589846 ODA589846:ODN589846 OMW589846:ONJ589846 OWS589846:OXF589846 PGO589846:PHB589846 PQK589846:PQX589846 QAG589846:QAT589846 QKC589846:QKP589846 QTY589846:QUL589846 RDU589846:REH589846 RNQ589846:ROD589846 RXM589846:RXZ589846 SHI589846:SHV589846 SRE589846:SRR589846 TBA589846:TBN589846 TKW589846:TLJ589846 TUS589846:TVF589846 UEO589846:UFB589846 UOK589846:UOX589846 UYG589846:UYT589846 VIC589846:VIP589846 VRY589846:VSL589846 WBU589846:WCH589846 WLQ589846:WMD589846 WVM589846:WVZ589846 E655382:R655382 JA655382:JN655382 SW655382:TJ655382 ACS655382:ADF655382 AMO655382:ANB655382 AWK655382:AWX655382 BGG655382:BGT655382 BQC655382:BQP655382 BZY655382:CAL655382 CJU655382:CKH655382 CTQ655382:CUD655382 DDM655382:DDZ655382 DNI655382:DNV655382 DXE655382:DXR655382 EHA655382:EHN655382 EQW655382:ERJ655382 FAS655382:FBF655382 FKO655382:FLB655382 FUK655382:FUX655382 GEG655382:GET655382 GOC655382:GOP655382 GXY655382:GYL655382 HHU655382:HIH655382 HRQ655382:HSD655382 IBM655382:IBZ655382 ILI655382:ILV655382 IVE655382:IVR655382 JFA655382:JFN655382 JOW655382:JPJ655382 JYS655382:JZF655382 KIO655382:KJB655382 KSK655382:KSX655382 LCG655382:LCT655382 LMC655382:LMP655382 LVY655382:LWL655382 MFU655382:MGH655382 MPQ655382:MQD655382 MZM655382:MZZ655382 NJI655382:NJV655382 NTE655382:NTR655382 ODA655382:ODN655382 OMW655382:ONJ655382 OWS655382:OXF655382 PGO655382:PHB655382 PQK655382:PQX655382 QAG655382:QAT655382 QKC655382:QKP655382 QTY655382:QUL655382 RDU655382:REH655382 RNQ655382:ROD655382 RXM655382:RXZ655382 SHI655382:SHV655382 SRE655382:SRR655382 TBA655382:TBN655382 TKW655382:TLJ655382 TUS655382:TVF655382 UEO655382:UFB655382 UOK655382:UOX655382 UYG655382:UYT655382 VIC655382:VIP655382 VRY655382:VSL655382 WBU655382:WCH655382 WLQ655382:WMD655382 WVM655382:WVZ655382 E720918:R720918 JA720918:JN720918 SW720918:TJ720918 ACS720918:ADF720918 AMO720918:ANB720918 AWK720918:AWX720918 BGG720918:BGT720918 BQC720918:BQP720918 BZY720918:CAL720918 CJU720918:CKH720918 CTQ720918:CUD720918 DDM720918:DDZ720918 DNI720918:DNV720918 DXE720918:DXR720918 EHA720918:EHN720918 EQW720918:ERJ720918 FAS720918:FBF720918 FKO720918:FLB720918 FUK720918:FUX720918 GEG720918:GET720918 GOC720918:GOP720918 GXY720918:GYL720918 HHU720918:HIH720918 HRQ720918:HSD720918 IBM720918:IBZ720918 ILI720918:ILV720918 IVE720918:IVR720918 JFA720918:JFN720918 JOW720918:JPJ720918 JYS720918:JZF720918 KIO720918:KJB720918 KSK720918:KSX720918 LCG720918:LCT720918 LMC720918:LMP720918 LVY720918:LWL720918 MFU720918:MGH720918 MPQ720918:MQD720918 MZM720918:MZZ720918 NJI720918:NJV720918 NTE720918:NTR720918 ODA720918:ODN720918 OMW720918:ONJ720918 OWS720918:OXF720918 PGO720918:PHB720918 PQK720918:PQX720918 QAG720918:QAT720918 QKC720918:QKP720918 QTY720918:QUL720918 RDU720918:REH720918 RNQ720918:ROD720918 RXM720918:RXZ720918 SHI720918:SHV720918 SRE720918:SRR720918 TBA720918:TBN720918 TKW720918:TLJ720918 TUS720918:TVF720918 UEO720918:UFB720918 UOK720918:UOX720918 UYG720918:UYT720918 VIC720918:VIP720918 VRY720918:VSL720918 WBU720918:WCH720918 WLQ720918:WMD720918 WVM720918:WVZ720918 E786454:R786454 JA786454:JN786454 SW786454:TJ786454 ACS786454:ADF786454 AMO786454:ANB786454 AWK786454:AWX786454 BGG786454:BGT786454 BQC786454:BQP786454 BZY786454:CAL786454 CJU786454:CKH786454 CTQ786454:CUD786454 DDM786454:DDZ786454 DNI786454:DNV786454 DXE786454:DXR786454 EHA786454:EHN786454 EQW786454:ERJ786454 FAS786454:FBF786454 FKO786454:FLB786454 FUK786454:FUX786454 GEG786454:GET786454 GOC786454:GOP786454 GXY786454:GYL786454 HHU786454:HIH786454 HRQ786454:HSD786454 IBM786454:IBZ786454 ILI786454:ILV786454 IVE786454:IVR786454 JFA786454:JFN786454 JOW786454:JPJ786454 JYS786454:JZF786454 KIO786454:KJB786454 KSK786454:KSX786454 LCG786454:LCT786454 LMC786454:LMP786454 LVY786454:LWL786454 MFU786454:MGH786454 MPQ786454:MQD786454 MZM786454:MZZ786454 NJI786454:NJV786454 NTE786454:NTR786454 ODA786454:ODN786454 OMW786454:ONJ786454 OWS786454:OXF786454 PGO786454:PHB786454 PQK786454:PQX786454 QAG786454:QAT786454 QKC786454:QKP786454 QTY786454:QUL786454 RDU786454:REH786454 RNQ786454:ROD786454 RXM786454:RXZ786454 SHI786454:SHV786454 SRE786454:SRR786454 TBA786454:TBN786454 TKW786454:TLJ786454 TUS786454:TVF786454 UEO786454:UFB786454 UOK786454:UOX786454 UYG786454:UYT786454 VIC786454:VIP786454 VRY786454:VSL786454 WBU786454:WCH786454 WLQ786454:WMD786454 WVM786454:WVZ786454 E851990:R851990 JA851990:JN851990 SW851990:TJ851990 ACS851990:ADF851990 AMO851990:ANB851990 AWK851990:AWX851990 BGG851990:BGT851990 BQC851990:BQP851990 BZY851990:CAL851990 CJU851990:CKH851990 CTQ851990:CUD851990 DDM851990:DDZ851990 DNI851990:DNV851990 DXE851990:DXR851990 EHA851990:EHN851990 EQW851990:ERJ851990 FAS851990:FBF851990 FKO851990:FLB851990 FUK851990:FUX851990 GEG851990:GET851990 GOC851990:GOP851990 GXY851990:GYL851990 HHU851990:HIH851990 HRQ851990:HSD851990 IBM851990:IBZ851990 ILI851990:ILV851990 IVE851990:IVR851990 JFA851990:JFN851990 JOW851990:JPJ851990 JYS851990:JZF851990 KIO851990:KJB851990 KSK851990:KSX851990 LCG851990:LCT851990 LMC851990:LMP851990 LVY851990:LWL851990 MFU851990:MGH851990 MPQ851990:MQD851990 MZM851990:MZZ851990 NJI851990:NJV851990 NTE851990:NTR851990 ODA851990:ODN851990 OMW851990:ONJ851990 OWS851990:OXF851990 PGO851990:PHB851990 PQK851990:PQX851990 QAG851990:QAT851990 QKC851990:QKP851990 QTY851990:QUL851990 RDU851990:REH851990 RNQ851990:ROD851990 RXM851990:RXZ851990 SHI851990:SHV851990 SRE851990:SRR851990 TBA851990:TBN851990 TKW851990:TLJ851990 TUS851990:TVF851990 UEO851990:UFB851990 UOK851990:UOX851990 UYG851990:UYT851990 VIC851990:VIP851990 VRY851990:VSL851990 WBU851990:WCH851990 WLQ851990:WMD851990 WVM851990:WVZ851990 E917526:R917526 JA917526:JN917526 SW917526:TJ917526 ACS917526:ADF917526 AMO917526:ANB917526 AWK917526:AWX917526 BGG917526:BGT917526 BQC917526:BQP917526 BZY917526:CAL917526 CJU917526:CKH917526 CTQ917526:CUD917526 DDM917526:DDZ917526 DNI917526:DNV917526 DXE917526:DXR917526 EHA917526:EHN917526 EQW917526:ERJ917526 FAS917526:FBF917526 FKO917526:FLB917526 FUK917526:FUX917526 GEG917526:GET917526 GOC917526:GOP917526 GXY917526:GYL917526 HHU917526:HIH917526 HRQ917526:HSD917526 IBM917526:IBZ917526 ILI917526:ILV917526 IVE917526:IVR917526 JFA917526:JFN917526 JOW917526:JPJ917526 JYS917526:JZF917526 KIO917526:KJB917526 KSK917526:KSX917526 LCG917526:LCT917526 LMC917526:LMP917526 LVY917526:LWL917526 MFU917526:MGH917526 MPQ917526:MQD917526 MZM917526:MZZ917526 NJI917526:NJV917526 NTE917526:NTR917526 ODA917526:ODN917526 OMW917526:ONJ917526 OWS917526:OXF917526 PGO917526:PHB917526 PQK917526:PQX917526 QAG917526:QAT917526 QKC917526:QKP917526 QTY917526:QUL917526 RDU917526:REH917526 RNQ917526:ROD917526 RXM917526:RXZ917526 SHI917526:SHV917526 SRE917526:SRR917526 TBA917526:TBN917526 TKW917526:TLJ917526 TUS917526:TVF917526 UEO917526:UFB917526 UOK917526:UOX917526 UYG917526:UYT917526 VIC917526:VIP917526 VRY917526:VSL917526 WBU917526:WCH917526 WLQ917526:WMD917526 WVM917526:WVZ917526 E983062:R983062 JA983062:JN983062 SW983062:TJ983062 ACS983062:ADF983062 AMO983062:ANB983062 AWK983062:AWX983062 BGG983062:BGT983062 BQC983062:BQP983062 BZY983062:CAL983062 CJU983062:CKH983062 CTQ983062:CUD983062 DDM983062:DDZ983062 DNI983062:DNV983062 DXE983062:DXR983062 EHA983062:EHN983062 EQW983062:ERJ983062 FAS983062:FBF983062 FKO983062:FLB983062 FUK983062:FUX983062 GEG983062:GET983062 GOC983062:GOP983062 GXY983062:GYL983062 HHU983062:HIH983062 HRQ983062:HSD983062 IBM983062:IBZ983062 ILI983062:ILV983062 IVE983062:IVR983062 JFA983062:JFN983062 JOW983062:JPJ983062 JYS983062:JZF983062 KIO983062:KJB983062 KSK983062:KSX983062 LCG983062:LCT983062 LMC983062:LMP983062 LVY983062:LWL983062 MFU983062:MGH983062 MPQ983062:MQD983062 MZM983062:MZZ983062 NJI983062:NJV983062 NTE983062:NTR983062 ODA983062:ODN983062 OMW983062:ONJ983062 OWS983062:OXF983062 PGO983062:PHB983062 PQK983062:PQX983062 QAG983062:QAT983062 QKC983062:QKP983062 QTY983062:QUL983062 RDU983062:REH983062 RNQ983062:ROD983062 RXM983062:RXZ983062 SHI983062:SHV983062 SRE983062:SRR983062 TBA983062:TBN983062 TKW983062:TLJ983062 TUS983062:TVF983062 UEO983062:UFB983062 UOK983062:UOX983062 UYG983062:UYT983062 VIC983062:VIP983062 VRY983062:VSL983062 WBU983062:WCH983062 WLQ983062:WMD983062 E22:R22">
